--- a/examples/ex010.PVT.xlsx
+++ b/examples/ex010.PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E99F2-B9A1-4B8A-ADF2-3B84C5175277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D453F43-593E-4D46-9353-9EFACE70F529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35265" yWindow="1065" windowWidth="32940" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -44,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>P</t>
   </si>
@@ -451,6 +473,15 @@
       </rPr>
       <t>g</t>
     </r>
+  </si>
+  <si>
+    <t>ST_oilgas</t>
+  </si>
+  <si>
+    <t>ST_watgas</t>
+  </si>
+  <si>
+    <t>ST_liqgas</t>
   </si>
 </sst>
 </file>
@@ -4113,6 +4144,846 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поверхностное</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> натяжение</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST_oilgas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PVT!$N$23:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6.5661875063976624E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2413684458147156E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8578466280318188E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1600552056456757E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0039352970392544E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.106846191361785E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4107515583273419E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8706182147466801E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4515027453803352E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1262908717757576E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7394331969589574E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7813470319339365E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2619736922436943E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.083018758290629E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1682108569122563E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.458367357111765E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9075656057825508E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4801720051472031E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1485367308888457E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9120495294710614E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9152883560179268E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3659052150392835E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1636642312578559E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2307875625658353E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5069236361734056E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.945242760750792E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FCD-40BB-9FC3-23573C58E67C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$O$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST_watgas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PVT!$O$23:$O$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6.4416926551517747E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3826348619054896E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3095734448019331E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1659500186148221E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8884365535558904E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6234132519034911E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3703179637025276E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1286138399136483E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8977881936844617E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6773514128719842E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4668359215096334E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2657951880159285E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.073802778041128E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8904514499428069E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7153522909717261E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5481338923357551E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3884415613920256E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2359365692962827E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0902954325135904E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9512092266663854E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8183829312644539E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6915348039269153E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5703957827688646E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4547089156850312E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3442288153199226E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2387211385683402E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FCD-40BB-9FC3-23573C58E67C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338671232"/>
+        <c:axId val="338671808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338671232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление, атм</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338671808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338671808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ST</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338671232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4153,7 +5024,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4760,8 +6187,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5512,7 +6939,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6448,16 +7875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122168</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>284093</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6472,7 +7899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8330233" y="5404402"/>
+          <a:off x="10243516" y="5495511"/>
           <a:ext cx="3226490" cy="1637472"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -6523,6 +7950,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485262</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9568AF0A-9AF9-47D9-8D69-FCFE50D31205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6544,6 +8009,9 @@
       <definedName name="PVT_rho_oil_kgm3"/>
       <definedName name="PVT_rho_wat_kgm3"/>
       <definedName name="PVT_rs_m3m3"/>
+      <definedName name="PVT_ST_liqgas_Nm"/>
+      <definedName name="PVT_ST_oilgas_Nm"/>
+      <definedName name="PVT_ST_watgas_Nm"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -7712,8 +9180,8 @@
   </sheetPr>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7960,6 +9428,15 @@
       <c r="L22" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="M22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -8004,6 +9481,18 @@
         <f>[1]!PVT_bg_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.2073650388059531</v>
       </c>
+      <c r="M23" s="17" cm="1">
+        <f t="array" ref="M23">[1]!PVT_ST_liqgas_Nm(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.5661875063976624E-2</v>
+      </c>
+      <c r="N23" s="17" cm="1">
+        <f t="array" ref="N23">[1]!PVT_ST_oilgas_Nm(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.5661875063976624E-2</v>
+      </c>
+      <c r="O23" s="22" cm="1">
+        <f t="array" ref="O23">[1]!PVT_ST_watgas_Nm(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.4416926551517747E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
@@ -8049,6 +9538,18 @@
         <f>[1]!PVT_bg_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>0.23962075278703712</v>
       </c>
+      <c r="M24" s="17" cm="1">
+        <f t="array" ref="M24">[1]!PVT_ST_liqgas_Nm(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.2413684458147156E-2</v>
+      </c>
+      <c r="N24" s="17" cm="1">
+        <f t="array" ref="N24">[1]!PVT_ST_oilgas_Nm(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.2413684458147156E-2</v>
+      </c>
+      <c r="O24" s="22" cm="1">
+        <f t="array" ref="O24">[1]!PVT_ST_watgas_Nm(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.3826348619054896E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
@@ -8094,6 +9595,18 @@
         <f>[1]!PVT_bg_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>0.11862739387713434</v>
       </c>
+      <c r="M25" s="17" cm="1">
+        <f t="array" ref="M25">[1]!PVT_ST_liqgas_Nm(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.8578466280318188E-2</v>
+      </c>
+      <c r="N25" s="17" cm="1">
+        <f t="array" ref="N25">[1]!PVT_ST_oilgas_Nm(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.8578466280318188E-2</v>
+      </c>
+      <c r="O25" s="22" cm="1">
+        <f t="array" ref="O25">[1]!PVT_ST_watgas_Nm(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.3095734448019331E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
@@ -8139,6 +9652,18 @@
         <f>[1]!PVT_bg_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.8076920703759985E-2</v>
       </c>
+      <c r="M26" s="17" cm="1">
+        <f t="array" ref="M26">[1]!PVT_ST_liqgas_Nm(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.1600552056456757E-2</v>
+      </c>
+      <c r="N26" s="17" cm="1">
+        <f t="array" ref="N26">[1]!PVT_ST_oilgas_Nm(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.1600552056456757E-2</v>
+      </c>
+      <c r="O26" s="22" cm="1">
+        <f t="array" ref="O26">[1]!PVT_ST_watgas_Nm(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.1659500186148221E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
@@ -8184,6 +9709,18 @@
         <f>[1]!PVT_bg_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>2.769580492313117E-2</v>
       </c>
+      <c r="M27" s="17" cm="1">
+        <f t="array" ref="M27">[1]!PVT_ST_liqgas_Nm(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.0039352970392544E-2</v>
+      </c>
+      <c r="N27" s="17" cm="1">
+        <f t="array" ref="N27">[1]!PVT_ST_oilgas_Nm(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.0039352970392544E-2</v>
+      </c>
+      <c r="O27" s="22" cm="1">
+        <f t="array" ref="O27">[1]!PVT_ST_watgas_Nm(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.8884365535558904E-2</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
@@ -8229,6 +9766,18 @@
         <f>[1]!PVT_bg_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.7539596221559636E-2</v>
       </c>
+      <c r="M28" s="17" cm="1">
+        <f t="array" ref="M28">[1]!PVT_ST_liqgas_Nm(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.106846191361785E-2</v>
+      </c>
+      <c r="N28" s="17" cm="1">
+        <f t="array" ref="N28">[1]!PVT_ST_oilgas_Nm(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.106846191361785E-2</v>
+      </c>
+      <c r="O28" s="22" cm="1">
+        <f t="array" ref="O28">[1]!PVT_ST_watgas_Nm(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.6234132519034911E-2</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
@@ -8274,6 +9823,18 @@
         <f>[1]!PVT_bg_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.2531494061703806E-2</v>
       </c>
+      <c r="M29" s="17" cm="1">
+        <f t="array" ref="M29">[1]!PVT_ST_liqgas_Nm(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.4107515583273419E-2</v>
+      </c>
+      <c r="N29" s="17" cm="1">
+        <f t="array" ref="N29">[1]!PVT_ST_oilgas_Nm(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.4107515583273419E-2</v>
+      </c>
+      <c r="O29" s="22" cm="1">
+        <f t="array" ref="O29">[1]!PVT_ST_watgas_Nm(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.3703179637025276E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
@@ -8319,6 +9880,18 @@
         <f>[1]!PVT_bg_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>9.6442305321601685E-3</v>
       </c>
+      <c r="M30" s="17" cm="1">
+        <f t="array" ref="M30">[1]!PVT_ST_liqgas_Nm(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.8706182147466801E-2</v>
+      </c>
+      <c r="N30" s="17" cm="1">
+        <f t="array" ref="N30">[1]!PVT_ST_oilgas_Nm(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.8706182147466801E-2</v>
+      </c>
+      <c r="O30" s="22" cm="1">
+        <f t="array" ref="O30">[1]!PVT_ST_watgas_Nm(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.1286138399136483E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
@@ -8364,6 +9937,18 @@
         <f>[1]!PVT_bg_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>7.839184287448531E-3</v>
       </c>
+      <c r="M31" s="17" cm="1">
+        <f t="array" ref="M31">[1]!PVT_ST_liqgas_Nm(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.4515027453803352E-2</v>
+      </c>
+      <c r="N31" s="17" cm="1">
+        <f t="array" ref="N31">[1]!PVT_ST_oilgas_Nm(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.4515027453803352E-2</v>
+      </c>
+      <c r="O31" s="22" cm="1">
+        <f t="array" ref="O31">[1]!PVT_ST_watgas_Nm(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.8977881936844617E-2</v>
+      </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
@@ -8409,8 +9994,20 @@
         <f>[1]!PVT_bg_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>6.6489852628354466E-3</v>
       </c>
+      <c r="M32" s="17" cm="1">
+        <f t="array" ref="M32">[1]!PVT_ST_liqgas_Nm(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.1262908717757576E-2</v>
+      </c>
+      <c r="N32" s="17" cm="1">
+        <f t="array" ref="N32">[1]!PVT_ST_oilgas_Nm(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.1262908717757576E-2</v>
+      </c>
+      <c r="O32" s="22" cm="1">
+        <f t="array" ref="O32">[1]!PVT_ST_watgas_Nm(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.6773514128719842E-2</v>
+      </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>160</v>
       </c>
@@ -8454,8 +10051,20 @@
         <f>[1]!PVT_bg_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.8297904239949464E-3</v>
       </c>
+      <c r="M33" s="17" cm="1">
+        <f t="array" ref="M33">[1]!PVT_ST_liqgas_Nm(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>8.7394331969589574E-3</v>
+      </c>
+      <c r="N33" s="17" cm="1">
+        <f t="array" ref="N33">[1]!PVT_ST_oilgas_Nm(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>8.7394331969589574E-3</v>
+      </c>
+      <c r="O33" s="22" cm="1">
+        <f t="array" ref="O33">[1]!PVT_ST_watgas_Nm(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.4668359215096334E-2</v>
+      </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <v>180</v>
       </c>
@@ -8499,8 +10108,20 @@
         <f>[1]!PVT_bg_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.2438887226397921E-3</v>
       </c>
+      <c r="M34" s="17" cm="1">
+        <f t="array" ref="M34">[1]!PVT_ST_liqgas_Nm(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.7813470319339365E-3</v>
+      </c>
+      <c r="N34" s="17" cm="1">
+        <f t="array" ref="N34">[1]!PVT_ST_oilgas_Nm(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.7813470319339365E-3</v>
+      </c>
+      <c r="O34" s="22" cm="1">
+        <f t="array" ref="O34">[1]!PVT_ST_watgas_Nm(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.2657951880159285E-2</v>
+      </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <v>200</v>
       </c>
@@ -8544,8 +10165,20 @@
         <f>[1]!PVT_bg_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.8098374262412367E-3</v>
       </c>
+      <c r="M35" s="17" cm="1">
+        <f t="array" ref="M35">[1]!PVT_ST_liqgas_Nm(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.2619736922436943E-3</v>
+      </c>
+      <c r="N35" s="17" cm="1">
+        <f t="array" ref="N35">[1]!PVT_ST_oilgas_Nm(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.2619736922436943E-3</v>
+      </c>
+      <c r="O35" s="22" cm="1">
+        <f t="array" ref="O35">[1]!PVT_ST_watgas_Nm(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.073802778041128E-2</v>
+      </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <v>220</v>
       </c>
@@ -8589,8 +10222,20 @@
         <f>[1]!PVT_bg_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.4778770128150371E-3</v>
       </c>
+      <c r="M36" s="17" cm="1">
+        <f t="array" ref="M36">[1]!PVT_ST_liqgas_Nm(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.083018758290629E-3</v>
+      </c>
+      <c r="N36" s="17" cm="1">
+        <f t="array" ref="N36">[1]!PVT_ST_oilgas_Nm(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.083018758290629E-3</v>
+      </c>
+      <c r="O36" s="22" cm="1">
+        <f t="array" ref="O36">[1]!PVT_ST_watgas_Nm(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.8904514499428069E-2</v>
+      </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>240</v>
       </c>
@@ -8634,8 +10279,20 @@
         <f>[1]!PVT_bg_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.216745127511916E-3</v>
       </c>
+      <c r="M37" s="17" cm="1">
+        <f t="array" ref="M37">[1]!PVT_ST_liqgas_Nm(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.1682108569122563E-3</v>
+      </c>
+      <c r="N37" s="17" cm="1">
+        <f t="array" ref="N37">[1]!PVT_ST_oilgas_Nm(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.1682108569122563E-3</v>
+      </c>
+      <c r="O37" s="22" cm="1">
+        <f t="array" ref="O37">[1]!PVT_ST_watgas_Nm(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.7153522909717261E-2</v>
+      </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <v>260</v>
       </c>
@@ -8679,8 +10336,20 @@
         <f>[1]!PVT_bg_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.0062670135346612E-3</v>
       </c>
+      <c r="M38" s="17" cm="1">
+        <f t="array" ref="M38">[1]!PVT_ST_liqgas_Nm(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.458367357111765E-3</v>
+      </c>
+      <c r="N38" s="17" cm="1">
+        <f t="array" ref="N38">[1]!PVT_ST_oilgas_Nm(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.458367357111765E-3</v>
+      </c>
+      <c r="O38" s="22" cm="1">
+        <f t="array" ref="O38">[1]!PVT_ST_watgas_Nm(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.5481338923357551E-2</v>
+      </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>280</v>
       </c>
@@ -8724,8 +10393,20 @@
         <f>[1]!PVT_bg_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.833068848676886E-3</v>
       </c>
+      <c r="M39" s="17" cm="1">
+        <f t="array" ref="M39">[1]!PVT_ST_liqgas_Nm(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.9075656057825508E-3</v>
+      </c>
+      <c r="N39" s="17" cm="1">
+        <f t="array" ref="N39">[1]!PVT_ST_oilgas_Nm(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.9075656057825508E-3</v>
+      </c>
+      <c r="O39" s="22" cm="1">
+        <f t="array" ref="O39">[1]!PVT_ST_watgas_Nm(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.3884415613920256E-2</v>
+      </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <v>300</v>
       </c>
@@ -8769,8 +10450,20 @@
         <f>[1]!PVT_bg_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.6880423922920863E-3</v>
       </c>
+      <c r="M40" s="17" cm="1">
+        <f t="array" ref="M40">[1]!PVT_ST_liqgas_Nm(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.4801720051472031E-3</v>
+      </c>
+      <c r="N40" s="17" cm="1">
+        <f t="array" ref="N40">[1]!PVT_ST_oilgas_Nm(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.4801720051472031E-3</v>
+      </c>
+      <c r="O40" s="22" cm="1">
+        <f t="array" ref="O40">[1]!PVT_ST_watgas_Nm(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.2359365692962827E-2</v>
+      </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <v>320</v>
       </c>
@@ -8814,8 +10507,20 @@
         <f>[1]!PVT_bg_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.5648155817530531E-3</v>
       </c>
+      <c r="M41" s="17" cm="1">
+        <f t="array" ref="M41">[1]!PVT_ST_liqgas_Nm(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.1485367308888457E-3</v>
+      </c>
+      <c r="N41" s="17" cm="1">
+        <f t="array" ref="N41">[1]!PVT_ST_oilgas_Nm(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.1485367308888457E-3</v>
+      </c>
+      <c r="O41" s="22" cm="1">
+        <f t="array" ref="O41">[1]!PVT_ST_watgas_Nm(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.0902954325135904E-2</v>
+      </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <v>340</v>
       </c>
@@ -8859,8 +10564,20 @@
         <f>[1]!PVT_bg_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.4588120062908063E-3</v>
       </c>
+      <c r="M42" s="17" cm="1">
+        <f t="array" ref="M42">[1]!PVT_ST_liqgas_Nm(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>8.9120495294710614E-4</v>
+      </c>
+      <c r="N42" s="17" cm="1">
+        <f t="array" ref="N42">[1]!PVT_ST_oilgas_Nm(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>8.9120495294710614E-4</v>
+      </c>
+      <c r="O42" s="22" cm="1">
+        <f t="array" ref="O42">[1]!PVT_ST_watgas_Nm(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.9512092266663854E-2</v>
+      </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <v>360</v>
       </c>
@@ -8904,8 +10621,20 @@
         <f>[1]!PVT_bg_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.366661144925251E-3</v>
       </c>
+      <c r="M43" s="17" cm="1">
+        <f t="array" ref="M43">[1]!PVT_ST_liqgas_Nm(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.9152883560179268E-4</v>
+      </c>
+      <c r="N43" s="17" cm="1">
+        <f t="array" ref="N43">[1]!PVT_ST_oilgas_Nm(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.9152883560179268E-4</v>
+      </c>
+      <c r="O43" s="22" cm="1">
+        <f t="array" ref="O43">[1]!PVT_ST_watgas_Nm(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.8183829312644539E-2</v>
+      </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <v>380</v>
       </c>
@@ -8949,8 +10678,20 @@
         <f>[1]!PVT_bg_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.28582115344489E-3</v>
       </c>
+      <c r="M44" s="17" cm="1">
+        <f t="array" ref="M44">[1]!PVT_ST_liqgas_Nm(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.3659052150392835E-4</v>
+      </c>
+      <c r="N44" s="17" cm="1">
+        <f t="array" ref="N44">[1]!PVT_ST_oilgas_Nm(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.3659052150392835E-4</v>
+      </c>
+      <c r="O44" s="22" cm="1">
+        <f t="array" ref="O44">[1]!PVT_ST_watgas_Nm(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.6915348039269153E-2</v>
+      </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <v>400</v>
       </c>
@@ -8994,8 +10735,20 @@
         <f>[1]!PVT_bg_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.2143327151275569E-3</v>
       </c>
+      <c r="M45" s="17" cm="1">
+        <f t="array" ref="M45">[1]!PVT_ST_liqgas_Nm(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.1636642312578559E-4</v>
+      </c>
+      <c r="N45" s="17" cm="1">
+        <f t="array" ref="N45">[1]!PVT_ST_oilgas_Nm(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>4.1636642312578559E-4</v>
+      </c>
+      <c r="O45" s="22" cm="1">
+        <f t="array" ref="O45">[1]!PVT_ST_watgas_Nm(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.5703957827688646E-2</v>
+      </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <v>420</v>
       </c>
@@ -9039,8 +10792,20 @@
         <f>[1]!PVT_bg_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.150655163311904E-3</v>
       </c>
+      <c r="M46" s="17" cm="1">
+        <f t="array" ref="M46">[1]!PVT_ST_liqgas_Nm(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.2307875625658353E-4</v>
+      </c>
+      <c r="N46" s="17" cm="1">
+        <f t="array" ref="N46">[1]!PVT_ST_oilgas_Nm(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>3.2307875625658353E-4</v>
+      </c>
+      <c r="O46" s="22" cm="1">
+        <f t="array" ref="O46">[1]!PVT_ST_watgas_Nm(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.4547089156850312E-2</v>
+      </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <v>440</v>
       </c>
@@ -9084,8 +10849,20 @@
         <f>[1]!PVT_bg_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.0935551933367481E-3</v>
       </c>
+      <c r="M47" s="17" cm="1">
+        <f t="array" ref="M47">[1]!PVT_ST_liqgas_Nm(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.5069236361734056E-4</v>
+      </c>
+      <c r="N47" s="17" cm="1">
+        <f t="array" ref="N47">[1]!PVT_ST_oilgas_Nm(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.5069236361734056E-4</v>
+      </c>
+      <c r="O47" s="22" cm="1">
+        <f t="array" ref="O47">[1]!PVT_ST_watgas_Nm(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.3442288153199226E-2</v>
+      </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <v>460</v>
       </c>
@@ -9128,6 +10905,18 @@
       <c r="L48" s="22">
         <f>[1]!PVT_bg_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.0420298112822813E-3</v>
+      </c>
+      <c r="M48" s="17" cm="1">
+        <f t="array" ref="M48">[1]!PVT_ST_liqgas_Nm(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.945242760750792E-4</v>
+      </c>
+      <c r="N48" s="17" cm="1">
+        <f t="array" ref="N48">[1]!PVT_ST_oilgas_Nm(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.945242760750792E-4</v>
+      </c>
+      <c r="O48" s="22" cm="1">
+        <f t="array" ref="O48">[1]!PVT_ST_watgas_Nm(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.2387211385683402E-2</v>
       </c>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.2">

--- a/examples/ex010.PVT.xlsx
+++ b/examples/ex010.PVT.xlsx
@@ -5,36 +5,47 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE4EED-B99F-4355-9E8E-8F23E32533C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3E22BA-20EE-4DC1-A52E-ABEC73DFBA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="345" windowWidth="25845" windowHeight="20610" xr2:uid="{85A72F34-8B62-4C21-BDA4-A5A5F87DD466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{85A72F34-8B62-4C21-BDA4-A5A5F87DD466}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="графики от давления" sheetId="1" r:id="rId1"/>
+    <sheet name="pb vs rsb" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Bob_" localSheetId="0">Лист1!$C$17</definedName>
-    <definedName name="correlation">Лист1!$C$19</definedName>
-    <definedName name="gamma_gas_" localSheetId="0">Лист1!$C$13</definedName>
-    <definedName name="gamma_oil_" localSheetId="0">Лист1!$C$11</definedName>
-    <definedName name="gamma_wat_" localSheetId="0">Лист1!$C$12</definedName>
-    <definedName name="muob_" localSheetId="0">Лист1!$C$18</definedName>
-    <definedName name="Pb_" localSheetId="0">Лист1!$C$15</definedName>
-    <definedName name="PVT_json">Лист1!$C$16</definedName>
-    <definedName name="Rsb_" localSheetId="0">Лист1!$C$14</definedName>
-    <definedName name="Tres_" localSheetId="0">Лист1!$C$16</definedName>
-    <definedName name="Количество_точек">Лист1!$C$24</definedName>
-    <definedName name="Конец">Лист1!$C$23</definedName>
-    <definedName name="Массив_точек">Лист1!$C$25</definedName>
-    <definedName name="Начало">Лист1!$C$22</definedName>
-    <definedName name="Температура">Лист1!$C$26</definedName>
+    <definedName name="Bob_" localSheetId="0">'графики от давления'!$C$17</definedName>
+    <definedName name="bob_m3m3">'pb vs rsb'!$C$13</definedName>
+    <definedName name="correlation">'графики от давления'!$C$19</definedName>
+    <definedName name="gamma_gas">'pb vs rsb'!$C$7</definedName>
+    <definedName name="gamma_gas_" localSheetId="0">'графики от давления'!$C$13</definedName>
+    <definedName name="gamma_oil">'pb vs rsb'!$C$8</definedName>
+    <definedName name="gamma_oil_" localSheetId="0">'графики от давления'!$C$11</definedName>
+    <definedName name="gamma_wat">'pb vs rsb'!$C$9</definedName>
+    <definedName name="gamma_wat_" localSheetId="0">'графики от давления'!$C$12</definedName>
+    <definedName name="linspace">'pb vs rsb'!$C$57</definedName>
+    <definedName name="muob_" localSheetId="0">'графики от давления'!$C$18</definedName>
+    <definedName name="muob_cP">'pb vs rsb'!$C$14</definedName>
+    <definedName name="Pb_" localSheetId="0">'графики от давления'!$C$15</definedName>
+    <definedName name="pb_atma">'pb vs rsb'!$C$11</definedName>
+    <definedName name="pvt_corr_set">'pb vs rsb'!$C$15</definedName>
+    <definedName name="PVT_json">'графики от давления'!$C$16</definedName>
+    <definedName name="PVT_json_1">'pb vs rsb'!$C$16</definedName>
+    <definedName name="Rsb_" localSheetId="0">'графики от давления'!$C$14</definedName>
+    <definedName name="rsb_m3m3">'pb vs rsb'!$C$10</definedName>
+    <definedName name="t_res_C">'pb vs rsb'!$C$12</definedName>
+    <definedName name="Tres_" localSheetId="0">'графики от давления'!$C$16</definedName>
+    <definedName name="Количество_точек">'графики от давления'!$C$24</definedName>
+    <definedName name="Конец">'графики от давления'!$C$23</definedName>
+    <definedName name="Массив_точек">'графики от давления'!$C$25</definedName>
+    <definedName name="Начало">'графики от давления'!$C$22</definedName>
+    <definedName name="Температура">'графики от давления'!$C$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t xml:space="preserve">Пример работы с макросами Унфлок VBA </t>
   </si>
@@ -317,6 +328,48 @@
   <si>
     <t>3. Построение графиков</t>
   </si>
+  <si>
+    <t>Расчет давления насыщения от газосодержания при давлении насыщения</t>
+  </si>
+  <si>
+    <t>rsb</t>
+  </si>
+  <si>
+    <t>Базовый набор данных</t>
+  </si>
+  <si>
+    <t>корр. Стендинга</t>
+  </si>
+  <si>
+    <t>корр. Валко Маккейн</t>
+  </si>
+  <si>
+    <t>расчет</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>Расчет газосодержания при разгазировании</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>val_from</t>
+  </si>
+  <si>
+    <t>val_to</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>linspace</t>
+  </si>
+  <si>
+    <t>обратный расчет rsb</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +429,7 @@
       <name val="Arial Cyr"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +472,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -432,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,6 +537,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,7 +655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$30</c:f>
+              <c:f>'графики от давления'!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,7 +690,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -708,7 +777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$31:$D$56</c:f>
+              <c:f>'графики от давления'!$D$31:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1213,7 +1282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$30</c:f>
+              <c:f>'графики от давления'!$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,7 +1317,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1335,7 +1404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$31:$E$56</c:f>
+              <c:f>'графики от давления'!$E$31:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1432,7 +1501,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$L$30</c:f>
+              <c:f>'графики от давления'!$L$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1467,7 +1536,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1554,7 +1623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$L$31:$L$56</c:f>
+              <c:f>'графики от давления'!$L$31:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1651,7 +1720,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$30</c:f>
+              <c:f>'графики от давления'!$M$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1686,7 +1755,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1773,7 +1842,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$31:$M$56</c:f>
+              <c:f>'графики от давления'!$M$31:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2287,7 +2356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$30</c:f>
+              <c:f>'графики от давления'!$F$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2322,7 +2391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2409,7 +2478,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$31:$F$56</c:f>
+              <c:f>'графики от давления'!$F$31:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2506,7 +2575,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$30</c:f>
+              <c:f>'графики от давления'!$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2541,7 +2610,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2628,7 +2697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$31:$H$56</c:f>
+              <c:f>'графики от давления'!$H$31:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2725,7 +2794,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$30</c:f>
+              <c:f>'графики от давления'!$G$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2760,7 +2829,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2847,7 +2916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$G$31:$G$56</c:f>
+              <c:f>'графики от давления'!$G$31:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3351,7 +3420,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$30</c:f>
+              <c:f>'графики от давления'!$I$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3386,7 +3455,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3473,7 +3542,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$31:$I$56</c:f>
+              <c:f>'графики от давления'!$I$31:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3570,7 +3639,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$K$30</c:f>
+              <c:f>'графики от давления'!$K$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3605,7 +3674,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3692,7 +3761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$K$31:$K$56</c:f>
+              <c:f>'графики от давления'!$K$31:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3789,7 +3858,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$J$30</c:f>
+              <c:f>'графики от давления'!$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3824,7 +3893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$31:$B$56</c:f>
+              <c:f>'графики от давления'!$B$31:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3911,7 +3980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$J$31:$J$56</c:f>
+              <c:f>'графики от давления'!$J$31:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4334,6 +4403,3499 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость давления насыщения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от газосодержания</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Стендинга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$C$23:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.9516569619629691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.20426525769534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.220275414584904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.659129780601489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.76599936161296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.32793720118292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.74670764006237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.04343216453705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.81267586222066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.67640780212275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404.02097397611681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>453.10848286447026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>501.12776305350866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>548.22092849987689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49855745182049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640.04897894804401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>684.9442641679459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>729.24425980965975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>772.99939974004769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>816.25272295477441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>859.04135817139502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0541-40A3-BD4C-4177A7F624F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Валко Маккейн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$D$23:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.7652176471718688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.622604514708939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.525292114122379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.56201380760596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.80213140879411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.89555548851553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.31347221879295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49547384519579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295.46729132686249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.67223073950203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.15217984314586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.69006660795321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.89203273740918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>441.23836560123277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.11679300751973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>478.84516848321897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494.68745080004754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508.86527275976425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.56651174046658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.9517649485374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>543.15932534142394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0541-40A3-BD4C-4177A7F624F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729496351"/>
+        <c:axId val="1729492191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729496351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>газосодержание </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729492191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729492191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление насыщения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729496351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость давления насыщения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от газосодержания</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Стендинга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$C$23:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.9516569619629691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.20426525769534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.220275414584904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.659129780601489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.76599936161296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.32793720118292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.74670764006237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.04343216453705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.81267586222066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.67640780212275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404.02097397611681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>453.10848286447026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>501.12776305350866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>548.22092849987689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49855745182049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640.04897894804401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>684.9442641679459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>729.24425980965975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>772.99939974004769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>816.25272295477441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>859.04135817139502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCF5-4FE3-AAA3-10DE680EC2DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Валко Маккейн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$D$23:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.7652176471718688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.622604514708939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.525292114122379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.56201380760596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.80213140879411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.89555548851553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.31347221879295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49547384519579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295.46729132686249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.67223073950203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.15217984314586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.69006660795321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.89203273740918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>441.23836560123277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.11679300751973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>478.84516848321897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494.68745080004754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508.86527275976425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.56651174046658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.9517649485374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>543.15932534142394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCF5-4FE3-AAA3-10DE680EC2DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>расчет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$G$23:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.7652176471718688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.622604514708939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.525292114122365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.56201380760596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.80213140879411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.89555548851553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.31347221879295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49547384519579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295.46729132686249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.67223073950203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.15217984314586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.69006660795321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.89203273740918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>441.23836560123283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.11679300751973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>478.84516848321897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494.68745080004754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508.8652727597642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.56651174046658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.9517649485374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>543.15932534142382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCF5-4FE3-AAA3-10DE680EC2DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729496351"/>
+        <c:axId val="1729492191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729496351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>газосодержание </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729492191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729492191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление насыщения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729496351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость давления насыщения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от газосодержания</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pb vs rsb</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$G$23:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.7652176471718688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.622604514708939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.525292114122365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.56201380760596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.80213140879411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.89555548851553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.31347221879295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49547384519579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295.46729132686249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.67223073950203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.15217984314586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.69006660795321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.89203273740918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>441.23836560123283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.11679300751973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>478.84516848321897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494.68745080004754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508.8652727597642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.56651174046658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.9517649485374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>543.15932534142382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C026-42F7-8BF0-64A682076D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rs vs p</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$C$59:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.647999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.47199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177.904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>191.51300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>232.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>245.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>259.553</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>273.161</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>286.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>313.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>327.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>341.20100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$D$59:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.2271659062697899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.022014659826571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.259056830115654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.880577262600646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.700919980779858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.074681365632486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.2054516936917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.229037764954583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.245164700554881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.332105990458729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.554340117432034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.96693491792567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102.61823487507657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.55159866234952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118.80719158854971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127.42035661422511</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.42584203788834</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.85583986198873</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155.74091151119103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.11024348451087</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176.99184801102425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188.41272296709593</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200.39898108307841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.97595563227983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>226.16828785320072</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C026-42F7-8BF0-64A682076D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729496351"/>
+        <c:axId val="1729492191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729496351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> насыщения</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729492191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729492191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Газосодержание</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.9038118055574082E-2"/>
+              <c:y val="0.34632971380785427"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729496351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость давления насыщения</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> от газосодержания</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Стендинга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$C$23:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.9516569619629691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.20426525769534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.220275414584904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.659129780601489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.76599936161296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.32793720118292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.74670764006237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.04343216453705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.81267586222066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.67640780212275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404.02097397611681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>453.10848286447026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>501.12776305350866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>548.22092849987689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49855745182049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640.04897894804401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>684.9442641679459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>729.24425980965975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>772.99939974004769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>816.25272295477441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>859.04135817139502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E84D-462D-BBF5-FF7E59BF95F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корр. Валко Маккейн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$B$23:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$D$23:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.7652176471718688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.622604514708939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.525292114122379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.56201380760596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.80213140879411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.89555548851553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.31347221879295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49547384519579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295.46729132686249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.67223073950203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365.15217984314586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393.69006660795321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418.89203273740918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>441.23836560123277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.11679300751973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>478.84516848321897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>494.68745080004754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508.86527275976425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>521.56651174046658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.9517649485374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>543.15932534142394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E84D-462D-BBF5-FF7E59BF95F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pb vs rsb'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>расчет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$I$23:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.11627514475664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.027970672961324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.016124941183307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.011337046209462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.008743154762044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.00711568881246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.00518563484465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.0040793277731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230.00336210460028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.00285938923201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310.00248746260195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350.00220115787874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390.00197395933083</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430.00178927573404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470.00163619429253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510.00150724273357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>550.00139713245892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590.0013020151564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630.0012190237419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670.00114597835807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pb vs rsb'!$C$23:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.9516569619629691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.20426525769534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.220275414584904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.659129780601489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.76599936161296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.32793720118292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.74670764006237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.04343216453705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.81267586222066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.67640780212275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404.02097397611681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>453.10848286447026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>501.12776305350866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>548.22092849987689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.49855745182049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640.04897894804401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>684.9442641679459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>729.24425980965975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>772.99939974004769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>816.25272295477441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>859.04135817139502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E84D-462D-BBF5-FF7E59BF95F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729496351"/>
+        <c:axId val="1729492191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729496351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>газосодержание </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729492191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729492191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление насыщения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729496351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4494,6 +8056,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6043,6 +9765,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7102,6 +12888,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597353</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>356507</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE218D42-1178-4147-8533-3ED575401BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>197304</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>98653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E12CB19-DB0C-4692-9559-0D826DEC60C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>507547</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>41502</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC65B308-F8A7-4C40-BC16-028BE6C2BF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>194582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B5FA93-3813-464E-9559-46E24D0FDA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7124,242 +13065,19 @@
       <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
+      <definedName name="PVT_pb_atma"/>
       <definedName name="PVT_rho_gas_kgm3"/>
       <definedName name="PVT_rho_oil_kgm3"/>
       <definedName name="PVT_rho_wat_kgm3"/>
       <definedName name="PVT_rs_m3m3"/>
+      <definedName name="PVT_rsb_m3m3"/>
       <definedName name="PVT_ST_oilgas_Nm"/>
       <definedName name="PVT_ST_watgas_Nm"/>
+      <definedName name="unf_pvt_pb_Standing_MPa"/>
+      <definedName name="unf_pvt_pb_Valko_McCain_MPa"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="exercise_PVT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>Rs</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1</v>
-          </cell>
-          <cell r="D27">
-            <v>0.25089974166166029</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>11.393908198723237</v>
-          </cell>
-          <cell r="D28">
-            <v>4.6960656995819416</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>21.787816397446473</v>
-          </cell>
-          <cell r="D29">
-            <v>10.249661367567072</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>32.181724596169708</v>
-          </cell>
-          <cell r="D30">
-            <v>16.393127931324145</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42.575632794892947</v>
-          </cell>
-          <cell r="D31">
-            <v>22.962025369134636</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>52.969540993616185</v>
-          </cell>
-          <cell r="D32">
-            <v>29.86948746073293</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>63.363449192339424</v>
-          </cell>
-          <cell r="D33">
-            <v>37.060744671252294</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>73.757357391062655</v>
-          </cell>
-          <cell r="D34">
-            <v>44.49772968355434</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>84.151265589785893</v>
-          </cell>
-          <cell r="D35">
-            <v>52.152272714803246</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>94.545173788509132</v>
-          </cell>
-          <cell r="D36">
-            <v>60.002591651916042</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>104.93908198723237</v>
-          </cell>
-          <cell r="D37">
-            <v>68.031285283769989</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>115.33299018595561</v>
-          </cell>
-          <cell r="D38">
-            <v>76.224097444626324</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>125.72689838467885</v>
-          </cell>
-          <cell r="D39">
-            <v>84.569111766627557</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>136.12080658340207</v>
-          </cell>
-          <cell r="D40">
-            <v>93.056203192569171</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>146.51471478212531</v>
-          </cell>
-          <cell r="D41">
-            <v>101.67665072192808</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>156.90862298084855</v>
-          </cell>
-          <cell r="D42">
-            <v>110.42285575969342</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>166.30253117957179</v>
-          </cell>
-          <cell r="D43">
-            <v>118.43019403718789</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>167.30253117957179</v>
-          </cell>
-          <cell r="D44">
-            <v>119.28813209487186</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>168.30253117957179</v>
-          </cell>
-          <cell r="D45">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>187.11645529677583</v>
-          </cell>
-          <cell r="D46">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>205.93037941397986</v>
-          </cell>
-          <cell r="D47">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>224.7443035311839</v>
-          </cell>
-          <cell r="D48">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>243.55822764838794</v>
-          </cell>
-          <cell r="D49">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>262.37215176559198</v>
-          </cell>
-          <cell r="D50">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>281.18607588279599</v>
-          </cell>
-          <cell r="D51">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>300</v>
-          </cell>
-          <cell r="D52">
-            <v>120</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7665,8 +13383,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7895,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>Температура</f>
+        <f t="shared" ref="C31:C56" si="0">Температура</f>
         <v>40</v>
       </c>
       <c r="D31" s="8" cm="1">
@@ -7976,7 +13694,7 @@
         <v>10.96</v>
       </c>
       <c r="C32" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D32" s="8" cm="1">
@@ -8057,7 +13775,7 @@
         <v>20.92</v>
       </c>
       <c r="C33" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D33" s="8" cm="1">
@@ -8138,7 +13856,7 @@
         <v>30.88</v>
       </c>
       <c r="C34" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D34" s="8" cm="1">
@@ -8219,7 +13937,7 @@
         <v>40.840000000000003</v>
       </c>
       <c r="C35" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D35" s="8" cm="1">
@@ -8300,7 +14018,7 @@
         <v>50.8</v>
       </c>
       <c r="C36" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D36" s="8" cm="1">
@@ -8381,7 +14099,7 @@
         <v>60.76</v>
       </c>
       <c r="C37" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D37" s="8" cm="1">
@@ -8462,7 +14180,7 @@
         <v>70.72</v>
       </c>
       <c r="C38" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D38" s="8" cm="1">
@@ -8543,7 +14261,7 @@
         <v>80.680000000000007</v>
       </c>
       <c r="C39" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D39" s="8" cm="1">
@@ -8624,7 +14342,7 @@
         <v>90.64</v>
       </c>
       <c r="C40" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D40" s="8" cm="1">
@@ -8705,7 +14423,7 @@
         <v>100.6</v>
       </c>
       <c r="C41" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D41" s="8" cm="1">
@@ -8786,7 +14504,7 @@
         <v>110.56</v>
       </c>
       <c r="C42" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="8" cm="1">
@@ -8867,7 +14585,7 @@
         <v>120.52</v>
       </c>
       <c r="C43" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D43" s="8" cm="1">
@@ -8948,7 +14666,7 @@
         <v>130.47999999999999</v>
       </c>
       <c r="C44" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D44" s="8" cm="1">
@@ -9029,7 +14747,7 @@
         <v>140.44</v>
       </c>
       <c r="C45" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D45" s="8" cm="1">
@@ -9110,7 +14828,7 @@
         <v>150.4</v>
       </c>
       <c r="C46" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D46" s="8" cm="1">
@@ -9191,7 +14909,7 @@
         <v>160.36000000000001</v>
       </c>
       <c r="C47" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D47" s="8" cm="1">
@@ -9272,7 +14990,7 @@
         <v>170.32</v>
       </c>
       <c r="C48" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D48" s="8" cm="1">
@@ -9353,7 +15071,7 @@
         <v>180.28</v>
       </c>
       <c r="C49" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D49" s="8" cm="1">
@@ -9434,7 +15152,7 @@
         <v>190.24</v>
       </c>
       <c r="C50" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D50" s="8" cm="1">
@@ -9515,7 +15233,7 @@
         <v>200.2</v>
       </c>
       <c r="C51" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D51" s="8" cm="1">
@@ -9596,7 +15314,7 @@
         <v>210.16</v>
       </c>
       <c r="C52" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D52" s="8" cm="1">
@@ -9677,7 +15395,7 @@
         <v>220.12</v>
       </c>
       <c r="C53" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D53" s="8" cm="1">
@@ -9758,7 +15476,7 @@
         <v>230.08</v>
       </c>
       <c r="C54" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D54" s="8" cm="1">
@@ -9839,7 +15557,7 @@
         <v>240.04</v>
       </c>
       <c r="C55" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D55" s="8" cm="1">
@@ -9920,7 +15638,7 @@
         <v>250</v>
       </c>
       <c r="C56" s="7">
-        <f>Температура</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D56" s="8" cm="1">
@@ -10001,4 +15719,1061 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37A10A0-1FFE-4113-8EC0-373BDBF6CF51}">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="B5:J84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>[1]!encode_PVT(C7,C8,C9,C10,C11,C12,C13,C14,C15)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":200,"PVT_corr_set":1}</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="str">
+        <f>[1]!encode_PVT(C7,C8,C9,C10,C11,C12,C13,C14,0)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":200,"PVT_corr_set":0}</v>
+      </c>
+      <c r="J22" t="str">
+        <f>[1]!encode_PVT(C7,C8,C9,C10,C11,C12,C13,C14,1)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":200,"PVT_corr_set":1}</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" cm="1">
+        <f t="array" ref="C23">[1]!unf_pvt_pb_Standing_MPa(B23,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>3.9516569619629691</v>
+      </c>
+      <c r="D23" s="23" cm="1">
+        <f t="array" ref="D23">[1]!unf_pvt_pb_Valko_McCain_MPa(B23,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>4.7652176471718688</v>
+      </c>
+      <c r="F23" t="str" cm="1">
+        <f t="array" ref="F23">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B23,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":1,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">[1]!PVT_pb_atma(t_res_C,F23)</f>
+        <v>4.7652176471718688</v>
+      </c>
+      <c r="I23" s="24" cm="1">
+        <f t="array" ref="I23">[1]!PVT_rsb_m3m3(C23,t_res_C,$I$22)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J23" s="24" cm="1">
+        <f t="array" ref="J23">[1]!PVT_rsb_m3m3(D23,t_res_C,$J$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="23" cm="1">
+        <f t="array" ref="C24">[1]!unf_pvt_pb_Standing_MPa(B24,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>26.20426525769534</v>
+      </c>
+      <c r="D24" s="23" cm="1">
+        <f t="array" ref="D24">[1]!unf_pvt_pb_Valko_McCain_MPa(B24,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>27.622604514708939</v>
+      </c>
+      <c r="F24" t="str" cm="1">
+        <f t="array" ref="F24">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B24,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":10,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">[1]!PVT_pb_atma(t_res_C,F24)</f>
+        <v>27.622604514708939</v>
+      </c>
+      <c r="I24" s="24" cm="1">
+        <f t="array" ref="I24">[1]!PVT_rsb_m3m3(C24,t_res_C,$I$22)</f>
+        <v>10.11627514475664</v>
+      </c>
+      <c r="J24" s="24" cm="1">
+        <f t="array" ref="J24">[1]!PVT_rsb_m3m3(D24,t_res_C,$J$22)</f>
+        <v>10.08835018373529</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" s="23" cm="1">
+        <f t="array" ref="C25">[1]!unf_pvt_pb_Standing_MPa(B25,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>65.220275414584904</v>
+      </c>
+      <c r="D25" s="23" cm="1">
+        <f t="array" ref="D25">[1]!unf_pvt_pb_Valko_McCain_MPa(B25,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>70.525292114122379</v>
+      </c>
+      <c r="F25" t="str" cm="1">
+        <f t="array" ref="F25">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B25,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":30,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">[1]!PVT_pb_atma(t_res_C,F25)</f>
+        <v>70.525292114122365</v>
+      </c>
+      <c r="I25" s="24" cm="1">
+        <f t="array" ref="I25">[1]!PVT_rsb_m3m3(C25,t_res_C,$I$22)</f>
+        <v>30.027970672961324</v>
+      </c>
+      <c r="J25" s="24" cm="1">
+        <f t="array" ref="J25">[1]!PVT_rsb_m3m3(D25,t_res_C,$J$22)</f>
+        <v>30.02699818793042</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" s="23" cm="1">
+        <f t="array" ref="C26">[1]!unf_pvt_pb_Standing_MPa(B26,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>99.659129780601489</v>
+      </c>
+      <c r="D26" s="23" cm="1">
+        <f t="array" ref="D26">[1]!unf_pvt_pb_Valko_McCain_MPa(B26,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>108.56201380760596</v>
+      </c>
+      <c r="F26" t="str" cm="1">
+        <f t="array" ref="F26">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B26,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":50,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">[1]!PVT_pb_atma(t_res_C,F26)</f>
+        <v>108.56201380760596</v>
+      </c>
+      <c r="I26" s="24" cm="1">
+        <f t="array" ref="I26">[1]!PVT_rsb_m3m3(C26,t_res_C,$I$22)</f>
+        <v>50.016124941183307</v>
+      </c>
+      <c r="J26" s="24" cm="1">
+        <f t="array" ref="J26">[1]!PVT_rsb_m3m3(D26,t_res_C,$J$22)</f>
+        <v>50.023708263487215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>70</v>
+      </c>
+      <c r="C27" s="23" cm="1">
+        <f t="array" ref="C27">[1]!unf_pvt_pb_Standing_MPa(B27,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>131.76599936161296</v>
+      </c>
+      <c r="D27" s="23" cm="1">
+        <f t="array" ref="D27">[1]!unf_pvt_pb_Valko_McCain_MPa(B27,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>142.80213140879411</v>
+      </c>
+      <c r="F27" t="str" cm="1">
+        <f t="array" ref="F27">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B27,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":70,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">[1]!PVT_pb_atma(t_res_C,F27)</f>
+        <v>142.80213140879411</v>
+      </c>
+      <c r="I27" s="24" cm="1">
+        <f t="array" ref="I27">[1]!PVT_rsb_m3m3(C27,t_res_C,$I$22)</f>
+        <v>70.011337046209462</v>
+      </c>
+      <c r="J27" s="24" cm="1">
+        <f t="array" ref="J27">[1]!PVT_rsb_m3m3(D27,t_res_C,$J$22)</f>
+        <v>70.021720723616852</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="C28" s="23" cm="1">
+        <f t="array" ref="C28">[1]!unf_pvt_pb_Standing_MPa(B28,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>162.32793720118292</v>
+      </c>
+      <c r="D28" s="23" cm="1">
+        <f t="array" ref="D28">[1]!unf_pvt_pb_Valko_McCain_MPa(B28,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>173.89555548851553</v>
+      </c>
+      <c r="F28" t="str" cm="1">
+        <f t="array" ref="F28">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B28,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":90,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">[1]!PVT_pb_atma(t_res_C,F28)</f>
+        <v>173.89555548851553</v>
+      </c>
+      <c r="I28" s="24" cm="1">
+        <f t="array" ref="I28">[1]!PVT_rsb_m3m3(C28,t_res_C,$I$22)</f>
+        <v>90.008743154762044</v>
+      </c>
+      <c r="J28" s="24" cm="1">
+        <f t="array" ref="J28">[1]!PVT_rsb_m3m3(D28,t_res_C,$J$22)</f>
+        <v>90.02026004431832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>110</v>
+      </c>
+      <c r="C29" s="23" cm="1">
+        <f t="array" ref="C29">[1]!unf_pvt_pb_Standing_MPa(B29,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>191.74670764006237</v>
+      </c>
+      <c r="D29" s="23" cm="1">
+        <f t="array" ref="D29">[1]!unf_pvt_pb_Valko_McCain_MPa(B29,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>202.31347221879295</v>
+      </c>
+      <c r="F29" t="str" cm="1">
+        <f t="array" ref="F29">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B29,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":110,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">[1]!PVT_pb_atma(t_res_C,F29)</f>
+        <v>202.31347221879295</v>
+      </c>
+      <c r="I29" s="24" cm="1">
+        <f t="array" ref="I29">[1]!PVT_rsb_m3m3(C29,t_res_C,$I$22)</f>
+        <v>110.00711568881246</v>
+      </c>
+      <c r="J29" s="24" cm="1">
+        <f t="array" ref="J29">[1]!PVT_rsb_m3m3(D29,t_res_C,$J$22)</f>
+        <v>110.01911270138272</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30" s="23" cm="1">
+        <f t="array" ref="C30">[1]!unf_pvt_pb_Standing_MPa(B30,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>248.04343216453705</v>
+      </c>
+      <c r="D30" s="23" cm="1">
+        <f t="array" ref="D30">[1]!unf_pvt_pb_Valko_McCain_MPa(B30,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>252.49547384519579</v>
+      </c>
+      <c r="F30" t="str" cm="1">
+        <f t="array" ref="F30">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B30,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":150,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">[1]!PVT_pb_atma(t_res_C,F30)</f>
+        <v>252.49547384519579</v>
+      </c>
+      <c r="I30" s="24" cm="1">
+        <f t="array" ref="I30">[1]!PVT_rsb_m3m3(C30,t_res_C,$I$22)</f>
+        <v>150.00518563484465</v>
+      </c>
+      <c r="J30" s="24" cm="1">
+        <f t="array" ref="J30">[1]!PVT_rsb_m3m3(D30,t_res_C,$J$22)</f>
+        <v>150.01739860952731</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>190</v>
+      </c>
+      <c r="C31" s="23" cm="1">
+        <f t="array" ref="C31">[1]!unf_pvt_pb_Standing_MPa(B31,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>301.81267586222066</v>
+      </c>
+      <c r="D31" s="23" cm="1">
+        <f t="array" ref="D31">[1]!unf_pvt_pb_Valko_McCain_MPa(B31,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>295.46729132686249</v>
+      </c>
+      <c r="F31" t="str" cm="1">
+        <f t="array" ref="F31">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B31,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":190,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">[1]!PVT_pb_atma(t_res_C,F31)</f>
+        <v>295.46729132686249</v>
+      </c>
+      <c r="I31" s="24" cm="1">
+        <f t="array" ref="I31">[1]!PVT_rsb_m3m3(C31,t_res_C,$I$22)</f>
+        <v>190.0040793277731</v>
+      </c>
+      <c r="J31" s="24" cm="1">
+        <f t="array" ref="J31">[1]!PVT_rsb_m3m3(D31,t_res_C,$J$22)</f>
+        <v>190.01616734921049</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>230</v>
+      </c>
+      <c r="C32" s="23" cm="1">
+        <f t="array" ref="C32">[1]!unf_pvt_pb_Standing_MPa(B32,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>353.67640780212275</v>
+      </c>
+      <c r="D32" s="23" cm="1">
+        <f t="array" ref="D32">[1]!unf_pvt_pb_Valko_McCain_MPa(B32,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>332.67223073950203</v>
+      </c>
+      <c r="F32" t="str" cm="1">
+        <f t="array" ref="F32">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B32,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":230,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">[1]!PVT_pb_atma(t_res_C,F32)</f>
+        <v>332.67223073950203</v>
+      </c>
+      <c r="I32" s="24" cm="1">
+        <f t="array" ref="I32">[1]!PVT_rsb_m3m3(C32,t_res_C,$I$22)</f>
+        <v>230.00336210460028</v>
+      </c>
+      <c r="J32" s="24" cm="1">
+        <f t="array" ref="J32">[1]!PVT_rsb_m3m3(D32,t_res_C,$J$22)</f>
+        <v>230.01523869147576</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>270</v>
+      </c>
+      <c r="C33" s="23" cm="1">
+        <f t="array" ref="C33">[1]!unf_pvt_pb_Standing_MPa(B33,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>404.02097397611681</v>
+      </c>
+      <c r="D33" s="23" cm="1">
+        <f t="array" ref="D33">[1]!unf_pvt_pb_Valko_McCain_MPa(B33,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>365.15217984314586</v>
+      </c>
+      <c r="F33" t="str" cm="1">
+        <f t="array" ref="F33">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B33,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":270,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">[1]!PVT_pb_atma(t_res_C,F33)</f>
+        <v>365.15217984314586</v>
+      </c>
+      <c r="I33" s="24" cm="1">
+        <f t="array" ref="I33">[1]!PVT_rsb_m3m3(C33,t_res_C,$I$22)</f>
+        <v>270.00285938923201</v>
+      </c>
+      <c r="J33" s="24" cm="1">
+        <f t="array" ref="J33">[1]!PVT_rsb_m3m3(D33,t_res_C,$J$22)</f>
+        <v>270.01451707721037</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>310</v>
+      </c>
+      <c r="C34" s="23" cm="1">
+        <f t="array" ref="C34">[1]!unf_pvt_pb_Standing_MPa(B34,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>453.10848286447026</v>
+      </c>
+      <c r="D34" s="23" cm="1">
+        <f t="array" ref="D34">[1]!unf_pvt_pb_Valko_McCain_MPa(B34,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>393.69006660795321</v>
+      </c>
+      <c r="F34" t="str" cm="1">
+        <f t="array" ref="F34">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B34,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":310,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">[1]!PVT_pb_atma(t_res_C,F34)</f>
+        <v>393.69006660795321</v>
+      </c>
+      <c r="I34" s="24" cm="1">
+        <f t="array" ref="I34">[1]!PVT_rsb_m3m3(C34,t_res_C,$I$22)</f>
+        <v>310.00248746260195</v>
+      </c>
+      <c r="J34" s="24" cm="1">
+        <f t="array" ref="J34">[1]!PVT_rsb_m3m3(D34,t_res_C,$J$22)</f>
+        <v>310.0139461990276</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>350</v>
+      </c>
+      <c r="C35" s="23" cm="1">
+        <f t="array" ref="C35">[1]!unf_pvt_pb_Standing_MPa(B35,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>501.12776305350866</v>
+      </c>
+      <c r="D35" s="23" cm="1">
+        <f t="array" ref="D35">[1]!unf_pvt_pb_Valko_McCain_MPa(B35,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>418.89203273740918</v>
+      </c>
+      <c r="F35" t="str" cm="1">
+        <f t="array" ref="F35">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B35,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":350,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">[1]!PVT_pb_atma(t_res_C,F35)</f>
+        <v>418.89203273740918</v>
+      </c>
+      <c r="I35" s="24" cm="1">
+        <f t="array" ref="I35">[1]!PVT_rsb_m3m3(C35,t_res_C,$I$22)</f>
+        <v>350.00220115787874</v>
+      </c>
+      <c r="J35" s="24" cm="1">
+        <f t="array" ref="J35">[1]!PVT_rsb_m3m3(D35,t_res_C,$J$22)</f>
+        <v>350.01349049519706</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>390</v>
+      </c>
+      <c r="C36" s="23" cm="1">
+        <f t="array" ref="C36">[1]!unf_pvt_pb_Standing_MPa(B36,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>548.22092849987689</v>
+      </c>
+      <c r="D36" s="23" cm="1">
+        <f t="array" ref="D36">[1]!unf_pvt_pb_Valko_McCain_MPa(B36,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>441.23836560123277</v>
+      </c>
+      <c r="F36" t="str" cm="1">
+        <f t="array" ref="F36">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B36,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":390,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">[1]!PVT_pb_atma(t_res_C,F36)</f>
+        <v>441.23836560123283</v>
+      </c>
+      <c r="I36" s="24" cm="1">
+        <f t="array" ref="I36">[1]!PVT_rsb_m3m3(C36,t_res_C,$I$22)</f>
+        <v>390.00197395933083</v>
+      </c>
+      <c r="J36" s="24" cm="1">
+        <f t="array" ref="J36">[1]!PVT_rsb_m3m3(D36,t_res_C,$J$22)</f>
+        <v>390.01312640546115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>430</v>
+      </c>
+      <c r="C37" s="23" cm="1">
+        <f t="array" ref="C37">[1]!unf_pvt_pb_Standing_MPa(B37,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>594.49855745182049</v>
+      </c>
+      <c r="D37" s="23" cm="1">
+        <f t="array" ref="D37">[1]!unf_pvt_pb_Valko_McCain_MPa(B37,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>461.11679300751973</v>
+      </c>
+      <c r="F37" t="str" cm="1">
+        <f t="array" ref="F37">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B37,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":430,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">[1]!PVT_pb_atma(t_res_C,F37)</f>
+        <v>461.11679300751973</v>
+      </c>
+      <c r="I37" s="24" cm="1">
+        <f t="array" ref="I37">[1]!PVT_rsb_m3m3(C37,t_res_C,$I$22)</f>
+        <v>430.00178927573404</v>
+      </c>
+      <c r="J37" s="24" cm="1">
+        <f t="array" ref="J37">[1]!PVT_rsb_m3m3(D37,t_res_C,$J$22)</f>
+        <v>430.01283781039996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>470</v>
+      </c>
+      <c r="C38" s="23" cm="1">
+        <f t="array" ref="C38">[1]!unf_pvt_pb_Standing_MPa(B38,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>640.04897894804401</v>
+      </c>
+      <c r="D38" s="23" cm="1">
+        <f t="array" ref="D38">[1]!unf_pvt_pb_Valko_McCain_MPa(B38,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>478.84516848321897</v>
+      </c>
+      <c r="F38" t="str" cm="1">
+        <f t="array" ref="F38">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B38,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":470,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">[1]!PVT_pb_atma(t_res_C,F38)</f>
+        <v>478.84516848321897</v>
+      </c>
+      <c r="I38" s="24" cm="1">
+        <f t="array" ref="I38">[1]!PVT_rsb_m3m3(C38,t_res_C,$I$22)</f>
+        <v>470.00163619429253</v>
+      </c>
+      <c r="J38" s="24" cm="1">
+        <f t="array" ref="J38">[1]!PVT_rsb_m3m3(D38,t_res_C,$J$22)</f>
+        <v>470.01261347751091</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>510</v>
+      </c>
+      <c r="C39" s="23" cm="1">
+        <f t="array" ref="C39">[1]!unf_pvt_pb_Standing_MPa(B39,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>684.9442641679459</v>
+      </c>
+      <c r="D39" s="23" cm="1">
+        <f t="array" ref="D39">[1]!unf_pvt_pb_Valko_McCain_MPa(B39,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>494.68745080004754</v>
+      </c>
+      <c r="F39" t="str" cm="1">
+        <f t="array" ref="F39">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B39,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":510,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">[1]!PVT_pb_atma(t_res_C,F39)</f>
+        <v>494.68745080004754</v>
+      </c>
+      <c r="I39" s="24" cm="1">
+        <f t="array" ref="I39">[1]!PVT_rsb_m3m3(C39,t_res_C,$I$22)</f>
+        <v>510.00150724273357</v>
+      </c>
+      <c r="J39" s="24" cm="1">
+        <f t="array" ref="J39">[1]!PVT_rsb_m3m3(D39,t_res_C,$J$22)</f>
+        <v>510.01244555520441</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>550</v>
+      </c>
+      <c r="C40" s="23" cm="1">
+        <f t="array" ref="C40">[1]!unf_pvt_pb_Standing_MPa(B40,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>729.24425980965975</v>
+      </c>
+      <c r="D40" s="23" cm="1">
+        <f t="array" ref="D40">[1]!unf_pvt_pb_Valko_McCain_MPa(B40,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>508.86527275976425</v>
+      </c>
+      <c r="F40" t="str" cm="1">
+        <f t="array" ref="F40">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B40,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":550,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">[1]!PVT_pb_atma(t_res_C,F40)</f>
+        <v>508.8652727597642</v>
+      </c>
+      <c r="I40" s="24" cm="1">
+        <f t="array" ref="I40">[1]!PVT_rsb_m3m3(C40,t_res_C,$I$22)</f>
+        <v>550.00139713245892</v>
+      </c>
+      <c r="J40" s="24" cm="1">
+        <f t="array" ref="J40">[1]!PVT_rsb_m3m3(D40,t_res_C,$J$22)</f>
+        <v>550.01232865339978</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>590</v>
+      </c>
+      <c r="C41" s="23" cm="1">
+        <f t="array" ref="C41">[1]!unf_pvt_pb_Standing_MPa(B41,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>772.99939974004769</v>
+      </c>
+      <c r="D41" s="23" cm="1">
+        <f t="array" ref="D41">[1]!unf_pvt_pb_Valko_McCain_MPa(B41,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>521.56651174046658</v>
+      </c>
+      <c r="F41" t="str" cm="1">
+        <f t="array" ref="F41">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B41,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":590,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">[1]!PVT_pb_atma(t_res_C,F41)</f>
+        <v>521.56651174046658</v>
+      </c>
+      <c r="I41" s="24" cm="1">
+        <f t="array" ref="I41">[1]!PVT_rsb_m3m3(C41,t_res_C,$I$22)</f>
+        <v>590.0013020151564</v>
+      </c>
+      <c r="J41" s="24" cm="1">
+        <f t="array" ref="J41">[1]!PVT_rsb_m3m3(D41,t_res_C,$J$22)</f>
+        <v>590.01225927372332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>630</v>
+      </c>
+      <c r="C42" s="23" cm="1">
+        <f t="array" ref="C42">[1]!unf_pvt_pb_Standing_MPa(B42,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>816.25272295477441</v>
+      </c>
+      <c r="D42" s="23" cm="1">
+        <f t="array" ref="D42">[1]!unf_pvt_pb_Valko_McCain_MPa(B42,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>532.9517649485374</v>
+      </c>
+      <c r="F42" t="str" cm="1">
+        <f t="array" ref="F42">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B42,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":630,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">[1]!PVT_pb_atma(t_res_C,F42)</f>
+        <v>532.9517649485374</v>
+      </c>
+      <c r="I42" s="24" cm="1">
+        <f t="array" ref="I42">[1]!PVT_rsb_m3m3(C42,t_res_C,$I$22)</f>
+        <v>630.0012190237419</v>
+      </c>
+      <c r="J42" s="24" cm="1">
+        <f t="array" ref="J42">[1]!PVT_rsb_m3m3(D42,t_res_C,$J$22)</f>
+        <v>630.01223546176209</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>670</v>
+      </c>
+      <c r="C43" s="23" cm="1">
+        <f t="array" ref="C43">[1]!unf_pvt_pb_Standing_MPa(B43,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>859.04135817139502</v>
+      </c>
+      <c r="D43" s="23" cm="1">
+        <f t="array" ref="D43">[1]!unf_pvt_pb_Valko_McCain_MPa(B43,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
+        <v>543.15932534142394</v>
+      </c>
+      <c r="F43" t="str" cm="1">
+        <f t="array" ref="F43">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B43,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":670,"PVT_corr_set":1}</v>
+      </c>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">[1]!PVT_pb_atma(t_res_C,F43)</f>
+        <v>543.15932534142382</v>
+      </c>
+      <c r="I43" s="24" cm="1">
+        <f t="array" ref="I43">[1]!PVT_rsb_m3m3(C43,t_res_C,$I$22)</f>
+        <v>670.00114597835807</v>
+      </c>
+      <c r="J43" s="24" cm="1">
+        <f t="array" ref="J43">[1]!PVT_rsb_m3m3(D43,t_res_C,$J$22)</f>
+        <v>670.01225661138756</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="18">
+        <v>240</v>
+      </c>
+      <c r="F51" t="str" cm="1">
+        <f t="array" ref="F51">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,C51,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":240,"PVT_corr_set":1}</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="21" cm="1">
+        <f t="array" ref="C52">[1]!PVT_pb_atma(t_res_C,F51)</f>
+        <v>341.20095644869366</v>
+      </c>
+      <c r="F52" t="str" cm="1">
+        <f t="array" ref="F52">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,C51,C52,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
+        <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":240,"pb_atma":341.201,"t_res_C":80,"PVT_corr_set":1}</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="18">
+        <f>C52</f>
+        <v>341.20095644869366</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="19" t="str">
+        <f>[1]!encode_linspace(C54,C55,C56)</f>
+        <v>[1,14.608,28.216,41.824,55.432,69.04,82.648,96.256,109.864,123.472,137.08,150.688,164.296,177.904,191.513,205.121,218.729,232.337,245.945,259.553,273.161,286.769,300.377,313.985,327.593,341.201]</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="array" ref="C59:C84">[1]!decode_json($C$57)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" cm="1">
+        <f t="array" ref="D59">[1]!PVT_rs_m3m3(C59,t_res_C,$F$52)</f>
+        <v>8.2271659062697899E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>14.608000000000001</v>
+      </c>
+      <c r="D60" cm="1">
+        <f t="array" ref="D60">[1]!PVT_rs_m3m3(C60,t_res_C,$F$52)</f>
+        <v>18.022014659826571</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>28.216000000000001</v>
+      </c>
+      <c r="D61" cm="1">
+        <f t="array" ref="D61">[1]!PVT_rs_m3m3(C61,t_res_C,$F$52)</f>
+        <v>28.259056830115654</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>41.823999999999998</v>
+      </c>
+      <c r="D62" cm="1">
+        <f t="array" ref="D62">[1]!PVT_rs_m3m3(C62,t_res_C,$F$52)</f>
+        <v>36.880577262600646</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>55.432000000000002</v>
+      </c>
+      <c r="D63" cm="1">
+        <f t="array" ref="D63">[1]!PVT_rs_m3m3(C63,t_res_C,$F$52)</f>
+        <v>44.700919980779858</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D64" cm="1">
+        <f t="array" ref="D64">[1]!PVT_rs_m3m3(C64,t_res_C,$F$52)</f>
+        <v>52.074681365632486</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>82.647999999999996</v>
+      </c>
+      <c r="D65" cm="1">
+        <f t="array" ref="D65">[1]!PVT_rs_m3m3(C65,t_res_C,$F$52)</f>
+        <v>59.2054516936917</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>96.256</v>
+      </c>
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">[1]!PVT_rs_m3m3(C66,t_res_C,$F$52)</f>
+        <v>66.229037764954583</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>109.864</v>
+      </c>
+      <c r="D67" cm="1">
+        <f t="array" ref="D67">[1]!PVT_rs_m3m3(C67,t_res_C,$F$52)</f>
+        <v>73.245164700554881</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>123.47199999999999</v>
+      </c>
+      <c r="D68" cm="1">
+        <f t="array" ref="D68">[1]!PVT_rs_m3m3(C68,t_res_C,$F$52)</f>
+        <v>80.332105990458729</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>137.08000000000001</v>
+      </c>
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">[1]!PVT_rs_m3m3(C69,t_res_C,$F$52)</f>
+        <v>87.554340117432034</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>150.68799999999999</v>
+      </c>
+      <c r="D70" cm="1">
+        <f t="array" ref="D70">[1]!PVT_rs_m3m3(C70,t_res_C,$F$52)</f>
+        <v>94.96693491792567</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>164.29599999999999</v>
+      </c>
+      <c r="D71" cm="1">
+        <f t="array" ref="D71">[1]!PVT_rs_m3m3(C71,t_res_C,$F$52)</f>
+        <v>102.61823487507657</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>177.904</v>
+      </c>
+      <c r="D72" cm="1">
+        <f t="array" ref="D72">[1]!PVT_rs_m3m3(C72,t_res_C,$F$52)</f>
+        <v>110.55159866234952</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>191.51300000000001</v>
+      </c>
+      <c r="D73" cm="1">
+        <f t="array" ref="D73">[1]!PVT_rs_m3m3(C73,t_res_C,$F$52)</f>
+        <v>118.80719158854971</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>205.12100000000001</v>
+      </c>
+      <c r="D74" cm="1">
+        <f t="array" ref="D74">[1]!PVT_rs_m3m3(C74,t_res_C,$F$52)</f>
+        <v>127.42035661422511</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>218.72900000000001</v>
+      </c>
+      <c r="D75" cm="1">
+        <f t="array" ref="D75">[1]!PVT_rs_m3m3(C75,t_res_C,$F$52)</f>
+        <v>136.42584203788834</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>232.33699999999999</v>
+      </c>
+      <c r="D76" cm="1">
+        <f t="array" ref="D76">[1]!PVT_rs_m3m3(C76,t_res_C,$F$52)</f>
+        <v>145.85583986198873</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>245.94499999999999</v>
+      </c>
+      <c r="D77" cm="1">
+        <f t="array" ref="D77">[1]!PVT_rs_m3m3(C77,t_res_C,$F$52)</f>
+        <v>155.74091151119103</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>259.553</v>
+      </c>
+      <c r="D78" cm="1">
+        <f t="array" ref="D78">[1]!PVT_rs_m3m3(C78,t_res_C,$F$52)</f>
+        <v>166.11024348451087</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>273.161</v>
+      </c>
+      <c r="D79" cm="1">
+        <f t="array" ref="D79">[1]!PVT_rs_m3m3(C79,t_res_C,$F$52)</f>
+        <v>176.99184801102425</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>286.76900000000001</v>
+      </c>
+      <c r="D80" cm="1">
+        <f t="array" ref="D80">[1]!PVT_rs_m3m3(C80,t_res_C,$F$52)</f>
+        <v>188.41272296709593</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>300.37700000000001</v>
+      </c>
+      <c r="D81" cm="1">
+        <f t="array" ref="D81">[1]!PVT_rs_m3m3(C81,t_res_C,$F$52)</f>
+        <v>200.39898108307841</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>313.98500000000001</v>
+      </c>
+      <c r="D82" cm="1">
+        <f t="array" ref="D82">[1]!PVT_rs_m3m3(C82,t_res_C,$F$52)</f>
+        <v>212.97595563227983</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>327.59300000000002</v>
+      </c>
+      <c r="D83" cm="1">
+        <f t="array" ref="D83">[1]!PVT_rs_m3m3(C83,t_res_C,$F$52)</f>
+        <v>226.16828785320072</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>341.20100000000002</v>
+      </c>
+      <c r="D84" cm="1">
+        <f t="array" ref="D84">[1]!PVT_rs_m3m3(C84,t_res_C,$F$52)</f>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/ex010.PVT.xlsx
+++ b/examples/ex010.PVT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3E22BA-20EE-4DC1-A52E-ABEC73DFBA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{85A72F34-8B62-4C21-BDA4-A5A5F87DD466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="графики от давления" sheetId="1" r:id="rId1"/>
@@ -47,7 +46,7 @@
     <definedName name="Начало">'графики от давления'!$C$22</definedName>
     <definedName name="Температура">'графики от давления'!$C$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,28 +62,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -615,6 +592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,6 +905,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1054,6 +1033,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1134,6 +1114,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,6 +1223,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1421,7 +1403,7 @@
                   <c:v>1.0397635791746314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0526284121419127</c:v>
+                  <c:v>1.0526284121419129</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0665526535566601</c:v>
@@ -1992,6 +1974,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2205,6 +2188,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2316,6 +2300,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2513,7 +2498,7 @@
                   <c:v>1.556606911111144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4076080220116916</c:v>
+                  <c:v>1.4076080220116913</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.2843310127570022</c:v>
@@ -3066,6 +3051,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3272,6 +3258,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3380,6 +3367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3778,7 +3766,7 @@
                   <c:v>844.99285399566725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>841.73366643388897</c:v>
+                  <c:v>841.73366643388874</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>838.07939496700408</c:v>
@@ -4130,6 +4118,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4335,6 +4324,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4448,6 +4438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4905,6 +4896,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5022,6 +5014,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5102,6 +5095,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5133,6 +5127,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5140,7 +5135,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5220,6 +5214,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5866,6 +5861,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5983,6 +5979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6063,6 +6060,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6094,6 +6092,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6101,7 +6100,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6181,6 +6179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6657,6 +6656,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6862,6 +6862,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6893,6 +6894,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6900,7 +6902,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6980,6 +6981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7626,6 +7628,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7743,6 +7746,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7823,6 +7827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7854,6 +7859,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7861,7 +7867,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13379,12 +13384,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBAAA18-F5CF-4803-B2F8-B8673BC23B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13527,7 +13532,7 @@
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="3" t="str" cm="1">
+      <c r="C25" s="3" t="str">
         <f t="array" ref="C25">[1]!encode_linspace(C22,C23,C24)</f>
         <v>[1,10.96,20.92,30.88,40.84,50.8,60.76,70.72,80.68,90.64,100.6,110.56,120.52,130.48,140.44,150.4,160.36,170.32,180.28,190.24,200.2,210.16,220.12,230.08,240.04,250]</v>
       </c>
@@ -13608,7 +13613,7 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" cm="1">
+      <c r="B31" s="7">
         <f t="array" ref="B31:B56">[1]!decode_json(Массив_точек)</f>
         <v>1</v>
       </c>
@@ -13616,7 +13621,7 @@
         <f t="shared" ref="C31:C56" si="0">Температура</f>
         <v>40</v>
       </c>
-      <c r="D31" s="8" cm="1">
+      <c r="D31" s="8">
         <f t="array" ref="D31">[1]!PVT_rs_m3m3(B31,C31,PVT_json)</f>
         <v>0.40799738531524365</v>
       </c>
@@ -13697,7 +13702,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D32" s="8" cm="1">
+      <c r="D32" s="8">
         <f t="array" ref="D32">[1]!PVT_rs_m3m3(B32,C32,PVT_json)</f>
         <v>7.2876798732693953</v>
       </c>
@@ -13778,7 +13783,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D33" s="8" cm="1">
+      <c r="D33" s="8">
         <f t="array" ref="D33">[1]!PVT_rs_m3m3(B33,C33,PVT_json)</f>
         <v>15.871341736906061</v>
       </c>
@@ -13859,7 +13864,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D34" s="8" cm="1">
+      <c r="D34" s="8">
         <f t="array" ref="D34">[1]!PVT_rs_m3m3(B34,C34,PVT_json)</f>
         <v>25.364647959839644</v>
       </c>
@@ -13940,13 +13945,13 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D35" s="8" cm="1">
+      <c r="D35" s="8">
         <f t="array" ref="D35">[1]!PVT_rs_m3m3(B35,C35,PVT_json)</f>
         <v>35.514409899723034</v>
       </c>
       <c r="E35" s="8">
         <f>[1]!PVT_bo_m3m3(B35,C35,PVT_json)</f>
-        <v>1.0526284121419127</v>
+        <v>1.0526284121419129</v>
       </c>
       <c r="F35" s="9">
         <f>[1]!PVT_mu_oil_cP(B35,C35,PVT_json)</f>
@@ -13970,7 +13975,7 @@
       </c>
       <c r="K35" s="11">
         <f>[1]!PVT_rho_oil_kgm3(B35,C35,PVT_json)</f>
-        <v>841.73366643388897</v>
+        <v>841.73366643388874</v>
       </c>
       <c r="L35" s="12">
         <f>[1]!PVT_bg_m3m3(B35,C35,PVT_json)</f>
@@ -14006,7 +14011,7 @@
       </c>
       <c r="T35" s="14">
         <f>[1]!PVT_compressibility_oil_1atm(B35,C35,PVT_json)</f>
-        <v>1.2748477737173858E-2</v>
+        <v>1.2748477737173854E-2</v>
       </c>
       <c r="U35" s="14">
         <f>[1]!PVT_compressibility_gas_1atm(B35,C35,PVT_json)</f>
@@ -14021,7 +14026,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D36" s="8" cm="1">
+      <c r="D36" s="8">
         <f t="array" ref="D36">[1]!PVT_rs_m3m3(B36,C36,PVT_json)</f>
         <v>46.186737869660284</v>
       </c>
@@ -14102,7 +14107,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D37" s="8" cm="1">
+      <c r="D37" s="8">
         <f t="array" ref="D37">[1]!PVT_rs_m3m3(B37,C37,PVT_json)</f>
         <v>57.297169628895659</v>
       </c>
@@ -14183,7 +14188,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D38" s="8" cm="1">
+      <c r="D38" s="8">
         <f t="array" ref="D38">[1]!PVT_rs_m3m3(B38,C38,PVT_json)</f>
         <v>68.786981354050553</v>
       </c>
@@ -14264,7 +14269,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D39" s="8" cm="1">
+      <c r="D39" s="8">
         <f t="array" ref="D39">[1]!PVT_rs_m3m3(B39,C39,PVT_json)</f>
         <v>80.61270806753825</v>
       </c>
@@ -14345,7 +14350,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D40" s="8" cm="1">
+      <c r="D40" s="8">
         <f t="array" ref="D40">[1]!PVT_rs_m3m3(B40,C40,PVT_json)</f>
         <v>92.740735470779853</v>
       </c>
@@ -14426,7 +14431,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D41" s="8" cm="1">
+      <c r="D41" s="8">
         <f t="array" ref="D41">[1]!PVT_rs_m3m3(B41,C41,PVT_json)</f>
         <v>105.1442067038592</v>
       </c>
@@ -14436,7 +14441,7 @@
       </c>
       <c r="F41" s="9">
         <f>[1]!PVT_mu_oil_cP(B41,C41,PVT_json)</f>
-        <v>1.4076080220116916</v>
+        <v>1.4076080220116913</v>
       </c>
       <c r="G41" s="10">
         <f>[1]!PVT_mu_gas_cP(B41,C41,PVT_json)</f>
@@ -14507,7 +14512,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D42" s="8" cm="1">
+      <c r="D42" s="8">
         <f t="array" ref="D42">[1]!PVT_rs_m3m3(B42,C42,PVT_json)</f>
         <v>117.80111687961006</v>
       </c>
@@ -14588,7 +14593,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D43" s="8" cm="1">
+      <c r="D43" s="8">
         <f t="array" ref="D43">[1]!PVT_rs_m3m3(B43,C43,PVT_json)</f>
         <v>120</v>
       </c>
@@ -14669,7 +14674,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D44" s="8" cm="1">
+      <c r="D44" s="8">
         <f t="array" ref="D44">[1]!PVT_rs_m3m3(B44,C44,PVT_json)</f>
         <v>120</v>
       </c>
@@ -14750,7 +14755,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D45" s="8" cm="1">
+      <c r="D45" s="8">
         <f t="array" ref="D45">[1]!PVT_rs_m3m3(B45,C45,PVT_json)</f>
         <v>120</v>
       </c>
@@ -14831,7 +14836,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D46" s="8" cm="1">
+      <c r="D46" s="8">
         <f t="array" ref="D46">[1]!PVT_rs_m3m3(B46,C46,PVT_json)</f>
         <v>120</v>
       </c>
@@ -14912,7 +14917,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D47" s="8" cm="1">
+      <c r="D47" s="8">
         <f t="array" ref="D47">[1]!PVT_rs_m3m3(B47,C47,PVT_json)</f>
         <v>120</v>
       </c>
@@ -14993,7 +14998,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D48" s="8" cm="1">
+      <c r="D48" s="8">
         <f t="array" ref="D48">[1]!PVT_rs_m3m3(B48,C48,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15074,7 +15079,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D49" s="8" cm="1">
+      <c r="D49" s="8">
         <f t="array" ref="D49">[1]!PVT_rs_m3m3(B49,C49,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15155,7 +15160,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D50" s="8" cm="1">
+      <c r="D50" s="8">
         <f t="array" ref="D50">[1]!PVT_rs_m3m3(B50,C50,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15236,7 +15241,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D51" s="8" cm="1">
+      <c r="D51" s="8">
         <f t="array" ref="D51">[1]!PVT_rs_m3m3(B51,C51,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15317,7 +15322,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D52" s="8" cm="1">
+      <c r="D52" s="8">
         <f t="array" ref="D52">[1]!PVT_rs_m3m3(B52,C52,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15398,7 +15403,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D53" s="8" cm="1">
+      <c r="D53" s="8">
         <f t="array" ref="D53">[1]!PVT_rs_m3m3(B53,C53,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15479,7 +15484,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D54" s="8" cm="1">
+      <c r="D54" s="8">
         <f t="array" ref="D54">[1]!PVT_rs_m3m3(B54,C54,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15560,7 +15565,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D55" s="8" cm="1">
+      <c r="D55" s="8">
         <f t="array" ref="D55">[1]!PVT_rs_m3m3(B55,C55,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15641,7 +15646,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D56" s="8" cm="1">
+      <c r="D56" s="8">
         <f t="array" ref="D56">[1]!PVT_rs_m3m3(B56,C56,PVT_json)</f>
         <v>120</v>
       </c>
@@ -15722,12 +15727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37A10A0-1FFE-4113-8EC0-373BDBF6CF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15862,27 +15867,27 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="23" cm="1">
+      <c r="C23" s="23">
         <f t="array" ref="C23">[1]!unf_pvt_pb_Standing_MPa(B23,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>3.9516569619629691</v>
       </c>
-      <c r="D23" s="23" cm="1">
+      <c r="D23" s="23">
         <f t="array" ref="D23">[1]!unf_pvt_pb_Valko_McCain_MPa(B23,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>4.7652176471718688</v>
       </c>
-      <c r="F23" t="str" cm="1">
+      <c r="F23" t="str">
         <f t="array" ref="F23">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B23,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":1,"PVT_corr_set":1}</v>
       </c>
-      <c r="G23" cm="1">
+      <c r="G23">
         <f t="array" ref="G23">[1]!PVT_pb_atma(t_res_C,F23)</f>
         <v>4.7652176471718688</v>
       </c>
-      <c r="I23" s="24" cm="1">
+      <c r="I23" s="24">
         <f t="array" ref="I23">[1]!PVT_rsb_m3m3(C23,t_res_C,$I$22)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="J23" s="24" cm="1">
+      <c r="J23" s="24">
         <f t="array" ref="J23">[1]!PVT_rsb_m3m3(D23,t_res_C,$J$22)</f>
         <v>1</v>
       </c>
@@ -15891,27 +15896,27 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="23" cm="1">
+      <c r="C24" s="23">
         <f t="array" ref="C24">[1]!unf_pvt_pb_Standing_MPa(B24,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>26.20426525769534</v>
       </c>
-      <c r="D24" s="23" cm="1">
+      <c r="D24" s="23">
         <f t="array" ref="D24">[1]!unf_pvt_pb_Valko_McCain_MPa(B24,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>27.622604514708939</v>
       </c>
-      <c r="F24" t="str" cm="1">
+      <c r="F24" t="str">
         <f t="array" ref="F24">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B24,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":10,"PVT_corr_set":1}</v>
       </c>
-      <c r="G24" cm="1">
+      <c r="G24">
         <f t="array" ref="G24">[1]!PVT_pb_atma(t_res_C,F24)</f>
         <v>27.622604514708939</v>
       </c>
-      <c r="I24" s="24" cm="1">
+      <c r="I24" s="24">
         <f t="array" ref="I24">[1]!PVT_rsb_m3m3(C24,t_res_C,$I$22)</f>
         <v>10.11627514475664</v>
       </c>
-      <c r="J24" s="24" cm="1">
+      <c r="J24" s="24">
         <f t="array" ref="J24">[1]!PVT_rsb_m3m3(D24,t_res_C,$J$22)</f>
         <v>10.08835018373529</v>
       </c>
@@ -15920,27 +15925,27 @@
       <c r="B25">
         <v>30</v>
       </c>
-      <c r="C25" s="23" cm="1">
+      <c r="C25" s="23">
         <f t="array" ref="C25">[1]!unf_pvt_pb_Standing_MPa(B25,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>65.220275414584904</v>
       </c>
-      <c r="D25" s="23" cm="1">
+      <c r="D25" s="23">
         <f t="array" ref="D25">[1]!unf_pvt_pb_Valko_McCain_MPa(B25,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>70.525292114122379</v>
       </c>
-      <c r="F25" t="str" cm="1">
+      <c r="F25" t="str">
         <f t="array" ref="F25">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B25,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":30,"PVT_corr_set":1}</v>
       </c>
-      <c r="G25" cm="1">
+      <c r="G25">
         <f t="array" ref="G25">[1]!PVT_pb_atma(t_res_C,F25)</f>
         <v>70.525292114122365</v>
       </c>
-      <c r="I25" s="24" cm="1">
+      <c r="I25" s="24">
         <f t="array" ref="I25">[1]!PVT_rsb_m3m3(C25,t_res_C,$I$22)</f>
         <v>30.027970672961324</v>
       </c>
-      <c r="J25" s="24" cm="1">
+      <c r="J25" s="24">
         <f t="array" ref="J25">[1]!PVT_rsb_m3m3(D25,t_res_C,$J$22)</f>
         <v>30.02699818793042</v>
       </c>
@@ -15949,27 +15954,27 @@
       <c r="B26">
         <v>50</v>
       </c>
-      <c r="C26" s="23" cm="1">
+      <c r="C26" s="23">
         <f t="array" ref="C26">[1]!unf_pvt_pb_Standing_MPa(B26,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>99.659129780601489</v>
       </c>
-      <c r="D26" s="23" cm="1">
+      <c r="D26" s="23">
         <f t="array" ref="D26">[1]!unf_pvt_pb_Valko_McCain_MPa(B26,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>108.56201380760596</v>
       </c>
-      <c r="F26" t="str" cm="1">
+      <c r="F26" t="str">
         <f t="array" ref="F26">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B26,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":50,"PVT_corr_set":1}</v>
       </c>
-      <c r="G26" cm="1">
+      <c r="G26">
         <f t="array" ref="G26">[1]!PVT_pb_atma(t_res_C,F26)</f>
         <v>108.56201380760596</v>
       </c>
-      <c r="I26" s="24" cm="1">
+      <c r="I26" s="24">
         <f t="array" ref="I26">[1]!PVT_rsb_m3m3(C26,t_res_C,$I$22)</f>
         <v>50.016124941183307</v>
       </c>
-      <c r="J26" s="24" cm="1">
+      <c r="J26" s="24">
         <f t="array" ref="J26">[1]!PVT_rsb_m3m3(D26,t_res_C,$J$22)</f>
         <v>50.023708263487215</v>
       </c>
@@ -15978,27 +15983,27 @@
       <c r="B27">
         <v>70</v>
       </c>
-      <c r="C27" s="23" cm="1">
+      <c r="C27" s="23">
         <f t="array" ref="C27">[1]!unf_pvt_pb_Standing_MPa(B27,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>131.76599936161296</v>
       </c>
-      <c r="D27" s="23" cm="1">
+      <c r="D27" s="23">
         <f t="array" ref="D27">[1]!unf_pvt_pb_Valko_McCain_MPa(B27,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>142.80213140879411</v>
       </c>
-      <c r="F27" t="str" cm="1">
+      <c r="F27" t="str">
         <f t="array" ref="F27">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B27,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":70,"PVT_corr_set":1}</v>
       </c>
-      <c r="G27" cm="1">
+      <c r="G27">
         <f t="array" ref="G27">[1]!PVT_pb_atma(t_res_C,F27)</f>
         <v>142.80213140879411</v>
       </c>
-      <c r="I27" s="24" cm="1">
+      <c r="I27" s="24">
         <f t="array" ref="I27">[1]!PVT_rsb_m3m3(C27,t_res_C,$I$22)</f>
         <v>70.011337046209462</v>
       </c>
-      <c r="J27" s="24" cm="1">
+      <c r="J27" s="24">
         <f t="array" ref="J27">[1]!PVT_rsb_m3m3(D27,t_res_C,$J$22)</f>
         <v>70.021720723616852</v>
       </c>
@@ -16007,27 +16012,27 @@
       <c r="B28">
         <v>90</v>
       </c>
-      <c r="C28" s="23" cm="1">
+      <c r="C28" s="23">
         <f t="array" ref="C28">[1]!unf_pvt_pb_Standing_MPa(B28,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>162.32793720118292</v>
       </c>
-      <c r="D28" s="23" cm="1">
+      <c r="D28" s="23">
         <f t="array" ref="D28">[1]!unf_pvt_pb_Valko_McCain_MPa(B28,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>173.89555548851553</v>
       </c>
-      <c r="F28" t="str" cm="1">
+      <c r="F28" t="str">
         <f t="array" ref="F28">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B28,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":90,"PVT_corr_set":1}</v>
       </c>
-      <c r="G28" cm="1">
+      <c r="G28">
         <f t="array" ref="G28">[1]!PVT_pb_atma(t_res_C,F28)</f>
         <v>173.89555548851553</v>
       </c>
-      <c r="I28" s="24" cm="1">
+      <c r="I28" s="24">
         <f t="array" ref="I28">[1]!PVT_rsb_m3m3(C28,t_res_C,$I$22)</f>
         <v>90.008743154762044</v>
       </c>
-      <c r="J28" s="24" cm="1">
+      <c r="J28" s="24">
         <f t="array" ref="J28">[1]!PVT_rsb_m3m3(D28,t_res_C,$J$22)</f>
         <v>90.02026004431832</v>
       </c>
@@ -16036,27 +16041,27 @@
       <c r="B29">
         <v>110</v>
       </c>
-      <c r="C29" s="23" cm="1">
+      <c r="C29" s="23">
         <f t="array" ref="C29">[1]!unf_pvt_pb_Standing_MPa(B29,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>191.74670764006237</v>
       </c>
-      <c r="D29" s="23" cm="1">
+      <c r="D29" s="23">
         <f t="array" ref="D29">[1]!unf_pvt_pb_Valko_McCain_MPa(B29,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>202.31347221879295</v>
       </c>
-      <c r="F29" t="str" cm="1">
+      <c r="F29" t="str">
         <f t="array" ref="F29">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B29,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":110,"PVT_corr_set":1}</v>
       </c>
-      <c r="G29" cm="1">
+      <c r="G29">
         <f t="array" ref="G29">[1]!PVT_pb_atma(t_res_C,F29)</f>
         <v>202.31347221879295</v>
       </c>
-      <c r="I29" s="24" cm="1">
+      <c r="I29" s="24">
         <f t="array" ref="I29">[1]!PVT_rsb_m3m3(C29,t_res_C,$I$22)</f>
         <v>110.00711568881246</v>
       </c>
-      <c r="J29" s="24" cm="1">
+      <c r="J29" s="24">
         <f t="array" ref="J29">[1]!PVT_rsb_m3m3(D29,t_res_C,$J$22)</f>
         <v>110.01911270138272</v>
       </c>
@@ -16065,27 +16070,27 @@
       <c r="B30">
         <v>150</v>
       </c>
-      <c r="C30" s="23" cm="1">
+      <c r="C30" s="23">
         <f t="array" ref="C30">[1]!unf_pvt_pb_Standing_MPa(B30,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>248.04343216453705</v>
       </c>
-      <c r="D30" s="23" cm="1">
+      <c r="D30" s="23">
         <f t="array" ref="D30">[1]!unf_pvt_pb_Valko_McCain_MPa(B30,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>252.49547384519579</v>
       </c>
-      <c r="F30" t="str" cm="1">
+      <c r="F30" t="str">
         <f t="array" ref="F30">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B30,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":150,"PVT_corr_set":1}</v>
       </c>
-      <c r="G30" cm="1">
+      <c r="G30">
         <f t="array" ref="G30">[1]!PVT_pb_atma(t_res_C,F30)</f>
         <v>252.49547384519579</v>
       </c>
-      <c r="I30" s="24" cm="1">
+      <c r="I30" s="24">
         <f t="array" ref="I30">[1]!PVT_rsb_m3m3(C30,t_res_C,$I$22)</f>
         <v>150.00518563484465</v>
       </c>
-      <c r="J30" s="24" cm="1">
+      <c r="J30" s="24">
         <f t="array" ref="J30">[1]!PVT_rsb_m3m3(D30,t_res_C,$J$22)</f>
         <v>150.01739860952731</v>
       </c>
@@ -16094,27 +16099,27 @@
       <c r="B31">
         <v>190</v>
       </c>
-      <c r="C31" s="23" cm="1">
+      <c r="C31" s="23">
         <f t="array" ref="C31">[1]!unf_pvt_pb_Standing_MPa(B31,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>301.81267586222066</v>
       </c>
-      <c r="D31" s="23" cm="1">
+      <c r="D31" s="23">
         <f t="array" ref="D31">[1]!unf_pvt_pb_Valko_McCain_MPa(B31,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>295.46729132686249</v>
       </c>
-      <c r="F31" t="str" cm="1">
+      <c r="F31" t="str">
         <f t="array" ref="F31">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B31,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":190,"PVT_corr_set":1}</v>
       </c>
-      <c r="G31" cm="1">
+      <c r="G31">
         <f t="array" ref="G31">[1]!PVT_pb_atma(t_res_C,F31)</f>
         <v>295.46729132686249</v>
       </c>
-      <c r="I31" s="24" cm="1">
+      <c r="I31" s="24">
         <f t="array" ref="I31">[1]!PVT_rsb_m3m3(C31,t_res_C,$I$22)</f>
         <v>190.0040793277731</v>
       </c>
-      <c r="J31" s="24" cm="1">
+      <c r="J31" s="24">
         <f t="array" ref="J31">[1]!PVT_rsb_m3m3(D31,t_res_C,$J$22)</f>
         <v>190.01616734921049</v>
       </c>
@@ -16123,27 +16128,27 @@
       <c r="B32">
         <v>230</v>
       </c>
-      <c r="C32" s="23" cm="1">
+      <c r="C32" s="23">
         <f t="array" ref="C32">[1]!unf_pvt_pb_Standing_MPa(B32,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>353.67640780212275</v>
       </c>
-      <c r="D32" s="23" cm="1">
+      <c r="D32" s="23">
         <f t="array" ref="D32">[1]!unf_pvt_pb_Valko_McCain_MPa(B32,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>332.67223073950203</v>
       </c>
-      <c r="F32" t="str" cm="1">
+      <c r="F32" t="str">
         <f t="array" ref="F32">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B32,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":230,"PVT_corr_set":1}</v>
       </c>
-      <c r="G32" cm="1">
+      <c r="G32">
         <f t="array" ref="G32">[1]!PVT_pb_atma(t_res_C,F32)</f>
         <v>332.67223073950203</v>
       </c>
-      <c r="I32" s="24" cm="1">
+      <c r="I32" s="24">
         <f t="array" ref="I32">[1]!PVT_rsb_m3m3(C32,t_res_C,$I$22)</f>
         <v>230.00336210460028</v>
       </c>
-      <c r="J32" s="24" cm="1">
+      <c r="J32" s="24">
         <f t="array" ref="J32">[1]!PVT_rsb_m3m3(D32,t_res_C,$J$22)</f>
         <v>230.01523869147576</v>
       </c>
@@ -16152,27 +16157,27 @@
       <c r="B33">
         <v>270</v>
       </c>
-      <c r="C33" s="23" cm="1">
+      <c r="C33" s="23">
         <f t="array" ref="C33">[1]!unf_pvt_pb_Standing_MPa(B33,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>404.02097397611681</v>
       </c>
-      <c r="D33" s="23" cm="1">
+      <c r="D33" s="23">
         <f t="array" ref="D33">[1]!unf_pvt_pb_Valko_McCain_MPa(B33,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>365.15217984314586</v>
       </c>
-      <c r="F33" t="str" cm="1">
+      <c r="F33" t="str">
         <f t="array" ref="F33">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B33,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":270,"PVT_corr_set":1}</v>
       </c>
-      <c r="G33" cm="1">
+      <c r="G33">
         <f t="array" ref="G33">[1]!PVT_pb_atma(t_res_C,F33)</f>
         <v>365.15217984314586</v>
       </c>
-      <c r="I33" s="24" cm="1">
+      <c r="I33" s="24">
         <f t="array" ref="I33">[1]!PVT_rsb_m3m3(C33,t_res_C,$I$22)</f>
         <v>270.00285938923201</v>
       </c>
-      <c r="J33" s="24" cm="1">
+      <c r="J33" s="24">
         <f t="array" ref="J33">[1]!PVT_rsb_m3m3(D33,t_res_C,$J$22)</f>
         <v>270.01451707721037</v>
       </c>
@@ -16181,27 +16186,27 @@
       <c r="B34">
         <v>310</v>
       </c>
-      <c r="C34" s="23" cm="1">
+      <c r="C34" s="23">
         <f t="array" ref="C34">[1]!unf_pvt_pb_Standing_MPa(B34,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>453.10848286447026</v>
       </c>
-      <c r="D34" s="23" cm="1">
+      <c r="D34" s="23">
         <f t="array" ref="D34">[1]!unf_pvt_pb_Valko_McCain_MPa(B34,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>393.69006660795321</v>
       </c>
-      <c r="F34" t="str" cm="1">
+      <c r="F34" t="str">
         <f t="array" ref="F34">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B34,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":310,"PVT_corr_set":1}</v>
       </c>
-      <c r="G34" cm="1">
+      <c r="G34">
         <f t="array" ref="G34">[1]!PVT_pb_atma(t_res_C,F34)</f>
         <v>393.69006660795321</v>
       </c>
-      <c r="I34" s="24" cm="1">
+      <c r="I34" s="24">
         <f t="array" ref="I34">[1]!PVT_rsb_m3m3(C34,t_res_C,$I$22)</f>
         <v>310.00248746260195</v>
       </c>
-      <c r="J34" s="24" cm="1">
+      <c r="J34" s="24">
         <f t="array" ref="J34">[1]!PVT_rsb_m3m3(D34,t_res_C,$J$22)</f>
         <v>310.0139461990276</v>
       </c>
@@ -16210,27 +16215,27 @@
       <c r="B35">
         <v>350</v>
       </c>
-      <c r="C35" s="23" cm="1">
+      <c r="C35" s="23">
         <f t="array" ref="C35">[1]!unf_pvt_pb_Standing_MPa(B35,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>501.12776305350866</v>
       </c>
-      <c r="D35" s="23" cm="1">
+      <c r="D35" s="23">
         <f t="array" ref="D35">[1]!unf_pvt_pb_Valko_McCain_MPa(B35,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>418.89203273740918</v>
       </c>
-      <c r="F35" t="str" cm="1">
+      <c r="F35" t="str">
         <f t="array" ref="F35">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B35,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":350,"PVT_corr_set":1}</v>
       </c>
-      <c r="G35" cm="1">
+      <c r="G35">
         <f t="array" ref="G35">[1]!PVT_pb_atma(t_res_C,F35)</f>
         <v>418.89203273740918</v>
       </c>
-      <c r="I35" s="24" cm="1">
+      <c r="I35" s="24">
         <f t="array" ref="I35">[1]!PVT_rsb_m3m3(C35,t_res_C,$I$22)</f>
         <v>350.00220115787874</v>
       </c>
-      <c r="J35" s="24" cm="1">
+      <c r="J35" s="24">
         <f t="array" ref="J35">[1]!PVT_rsb_m3m3(D35,t_res_C,$J$22)</f>
         <v>350.01349049519706</v>
       </c>
@@ -16239,27 +16244,27 @@
       <c r="B36">
         <v>390</v>
       </c>
-      <c r="C36" s="23" cm="1">
+      <c r="C36" s="23">
         <f t="array" ref="C36">[1]!unf_pvt_pb_Standing_MPa(B36,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>548.22092849987689</v>
       </c>
-      <c r="D36" s="23" cm="1">
+      <c r="D36" s="23">
         <f t="array" ref="D36">[1]!unf_pvt_pb_Valko_McCain_MPa(B36,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>441.23836560123277</v>
       </c>
-      <c r="F36" t="str" cm="1">
+      <c r="F36" t="str">
         <f t="array" ref="F36">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B36,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":390,"PVT_corr_set":1}</v>
       </c>
-      <c r="G36" cm="1">
+      <c r="G36">
         <f t="array" ref="G36">[1]!PVT_pb_atma(t_res_C,F36)</f>
         <v>441.23836560123283</v>
       </c>
-      <c r="I36" s="24" cm="1">
+      <c r="I36" s="24">
         <f t="array" ref="I36">[1]!PVT_rsb_m3m3(C36,t_res_C,$I$22)</f>
         <v>390.00197395933083</v>
       </c>
-      <c r="J36" s="24" cm="1">
+      <c r="J36" s="24">
         <f t="array" ref="J36">[1]!PVT_rsb_m3m3(D36,t_res_C,$J$22)</f>
         <v>390.01312640546115</v>
       </c>
@@ -16268,27 +16273,27 @@
       <c r="B37">
         <v>430</v>
       </c>
-      <c r="C37" s="23" cm="1">
+      <c r="C37" s="23">
         <f t="array" ref="C37">[1]!unf_pvt_pb_Standing_MPa(B37,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>594.49855745182049</v>
       </c>
-      <c r="D37" s="23" cm="1">
+      <c r="D37" s="23">
         <f t="array" ref="D37">[1]!unf_pvt_pb_Valko_McCain_MPa(B37,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>461.11679300751973</v>
       </c>
-      <c r="F37" t="str" cm="1">
+      <c r="F37" t="str">
         <f t="array" ref="F37">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B37,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":430,"PVT_corr_set":1}</v>
       </c>
-      <c r="G37" cm="1">
+      <c r="G37">
         <f t="array" ref="G37">[1]!PVT_pb_atma(t_res_C,F37)</f>
         <v>461.11679300751973</v>
       </c>
-      <c r="I37" s="24" cm="1">
+      <c r="I37" s="24">
         <f t="array" ref="I37">[1]!PVT_rsb_m3m3(C37,t_res_C,$I$22)</f>
         <v>430.00178927573404</v>
       </c>
-      <c r="J37" s="24" cm="1">
+      <c r="J37" s="24">
         <f t="array" ref="J37">[1]!PVT_rsb_m3m3(D37,t_res_C,$J$22)</f>
         <v>430.01283781039996</v>
       </c>
@@ -16297,27 +16302,27 @@
       <c r="B38">
         <v>470</v>
       </c>
-      <c r="C38" s="23" cm="1">
+      <c r="C38" s="23">
         <f t="array" ref="C38">[1]!unf_pvt_pb_Standing_MPa(B38,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>640.04897894804401</v>
       </c>
-      <c r="D38" s="23" cm="1">
+      <c r="D38" s="23">
         <f t="array" ref="D38">[1]!unf_pvt_pb_Valko_McCain_MPa(B38,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>478.84516848321897</v>
       </c>
-      <c r="F38" t="str" cm="1">
+      <c r="F38" t="str">
         <f t="array" ref="F38">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B38,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":470,"PVT_corr_set":1}</v>
       </c>
-      <c r="G38" cm="1">
+      <c r="G38">
         <f t="array" ref="G38">[1]!PVT_pb_atma(t_res_C,F38)</f>
         <v>478.84516848321897</v>
       </c>
-      <c r="I38" s="24" cm="1">
+      <c r="I38" s="24">
         <f t="array" ref="I38">[1]!PVT_rsb_m3m3(C38,t_res_C,$I$22)</f>
         <v>470.00163619429253</v>
       </c>
-      <c r="J38" s="24" cm="1">
+      <c r="J38" s="24">
         <f t="array" ref="J38">[1]!PVT_rsb_m3m3(D38,t_res_C,$J$22)</f>
         <v>470.01261347751091</v>
       </c>
@@ -16326,27 +16331,27 @@
       <c r="B39">
         <v>510</v>
       </c>
-      <c r="C39" s="23" cm="1">
+      <c r="C39" s="23">
         <f t="array" ref="C39">[1]!unf_pvt_pb_Standing_MPa(B39,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>684.9442641679459</v>
       </c>
-      <c r="D39" s="23" cm="1">
+      <c r="D39" s="23">
         <f t="array" ref="D39">[1]!unf_pvt_pb_Valko_McCain_MPa(B39,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>494.68745080004754</v>
       </c>
-      <c r="F39" t="str" cm="1">
+      <c r="F39" t="str">
         <f t="array" ref="F39">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B39,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":510,"PVT_corr_set":1}</v>
       </c>
-      <c r="G39" cm="1">
+      <c r="G39">
         <f t="array" ref="G39">[1]!PVT_pb_atma(t_res_C,F39)</f>
         <v>494.68745080004754</v>
       </c>
-      <c r="I39" s="24" cm="1">
+      <c r="I39" s="24">
         <f t="array" ref="I39">[1]!PVT_rsb_m3m3(C39,t_res_C,$I$22)</f>
         <v>510.00150724273357</v>
       </c>
-      <c r="J39" s="24" cm="1">
+      <c r="J39" s="24">
         <f t="array" ref="J39">[1]!PVT_rsb_m3m3(D39,t_res_C,$J$22)</f>
         <v>510.01244555520441</v>
       </c>
@@ -16355,27 +16360,27 @@
       <c r="B40">
         <v>550</v>
       </c>
-      <c r="C40" s="23" cm="1">
+      <c r="C40" s="23">
         <f t="array" ref="C40">[1]!unf_pvt_pb_Standing_MPa(B40,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>729.24425980965975</v>
       </c>
-      <c r="D40" s="23" cm="1">
+      <c r="D40" s="23">
         <f t="array" ref="D40">[1]!unf_pvt_pb_Valko_McCain_MPa(B40,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>508.86527275976425</v>
       </c>
-      <c r="F40" t="str" cm="1">
+      <c r="F40" t="str">
         <f t="array" ref="F40">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B40,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":550,"PVT_corr_set":1}</v>
       </c>
-      <c r="G40" cm="1">
+      <c r="G40">
         <f t="array" ref="G40">[1]!PVT_pb_atma(t_res_C,F40)</f>
         <v>508.8652727597642</v>
       </c>
-      <c r="I40" s="24" cm="1">
+      <c r="I40" s="24">
         <f t="array" ref="I40">[1]!PVT_rsb_m3m3(C40,t_res_C,$I$22)</f>
         <v>550.00139713245892</v>
       </c>
-      <c r="J40" s="24" cm="1">
+      <c r="J40" s="24">
         <f t="array" ref="J40">[1]!PVT_rsb_m3m3(D40,t_res_C,$J$22)</f>
         <v>550.01232865339978</v>
       </c>
@@ -16384,27 +16389,27 @@
       <c r="B41">
         <v>590</v>
       </c>
-      <c r="C41" s="23" cm="1">
+      <c r="C41" s="23">
         <f t="array" ref="C41">[1]!unf_pvt_pb_Standing_MPa(B41,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>772.99939974004769</v>
       </c>
-      <c r="D41" s="23" cm="1">
+      <c r="D41" s="23">
         <f t="array" ref="D41">[1]!unf_pvt_pb_Valko_McCain_MPa(B41,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>521.56651174046658</v>
       </c>
-      <c r="F41" t="str" cm="1">
+      <c r="F41" t="str">
         <f t="array" ref="F41">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B41,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":590,"PVT_corr_set":1}</v>
       </c>
-      <c r="G41" cm="1">
+      <c r="G41">
         <f t="array" ref="G41">[1]!PVT_pb_atma(t_res_C,F41)</f>
         <v>521.56651174046658</v>
       </c>
-      <c r="I41" s="24" cm="1">
+      <c r="I41" s="24">
         <f t="array" ref="I41">[1]!PVT_rsb_m3m3(C41,t_res_C,$I$22)</f>
         <v>590.0013020151564</v>
       </c>
-      <c r="J41" s="24" cm="1">
+      <c r="J41" s="24">
         <f t="array" ref="J41">[1]!PVT_rsb_m3m3(D41,t_res_C,$J$22)</f>
         <v>590.01225927372332</v>
       </c>
@@ -16413,27 +16418,27 @@
       <c r="B42">
         <v>630</v>
       </c>
-      <c r="C42" s="23" cm="1">
+      <c r="C42" s="23">
         <f t="array" ref="C42">[1]!unf_pvt_pb_Standing_MPa(B42,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>816.25272295477441</v>
       </c>
-      <c r="D42" s="23" cm="1">
+      <c r="D42" s="23">
         <f t="array" ref="D42">[1]!unf_pvt_pb_Valko_McCain_MPa(B42,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>532.9517649485374</v>
       </c>
-      <c r="F42" t="str" cm="1">
+      <c r="F42" t="str">
         <f t="array" ref="F42">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B42,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":630,"PVT_corr_set":1}</v>
       </c>
-      <c r="G42" cm="1">
+      <c r="G42">
         <f t="array" ref="G42">[1]!PVT_pb_atma(t_res_C,F42)</f>
         <v>532.9517649485374</v>
       </c>
-      <c r="I42" s="24" cm="1">
+      <c r="I42" s="24">
         <f t="array" ref="I42">[1]!PVT_rsb_m3m3(C42,t_res_C,$I$22)</f>
         <v>630.0012190237419</v>
       </c>
-      <c r="J42" s="24" cm="1">
+      <c r="J42" s="24">
         <f t="array" ref="J42">[1]!PVT_rsb_m3m3(D42,t_res_C,$J$22)</f>
         <v>630.01223546176209</v>
       </c>
@@ -16442,27 +16447,27 @@
       <c r="B43">
         <v>670</v>
       </c>
-      <c r="C43" s="23" cm="1">
+      <c r="C43" s="23">
         <f t="array" ref="C43">[1]!unf_pvt_pb_Standing_MPa(B43,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>859.04135817139502</v>
       </c>
-      <c r="D43" s="23" cm="1">
+      <c r="D43" s="23">
         <f t="array" ref="D43">[1]!unf_pvt_pb_Valko_McCain_MPa(B43,gamma_gas,t_res_C+273,gamma_oil)*10/1.01325</f>
         <v>543.15932534142394</v>
       </c>
-      <c r="F43" t="str" cm="1">
+      <c r="F43" t="str">
         <f t="array" ref="F43">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,B43,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":670,"PVT_corr_set":1}</v>
       </c>
-      <c r="G43" cm="1">
+      <c r="G43">
         <f t="array" ref="G43">[1]!PVT_pb_atma(t_res_C,F43)</f>
         <v>543.15932534142382</v>
       </c>
-      <c r="I43" s="24" cm="1">
+      <c r="I43" s="24">
         <f t="array" ref="I43">[1]!PVT_rsb_m3m3(C43,t_res_C,$I$22)</f>
         <v>670.00114597835807</v>
       </c>
-      <c r="J43" s="24" cm="1">
+      <c r="J43" s="24">
         <f t="array" ref="J43">[1]!PVT_rsb_m3m3(D43,t_res_C,$J$22)</f>
         <v>670.01225661138756</v>
       </c>
@@ -16485,7 +16490,7 @@
       <c r="C51" s="18">
         <v>240</v>
       </c>
-      <c r="F51" t="str" cm="1">
+      <c r="F51" t="str">
         <f t="array" ref="F51">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,C51,pb_atma,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":240,"PVT_corr_set":1}</v>
       </c>
@@ -16494,11 +16499,11 @@
       <c r="B52" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="21" cm="1">
+      <c r="C52" s="21">
         <f t="array" ref="C52">[1]!PVT_pb_atma(t_res_C,F51)</f>
         <v>341.20095644869366</v>
       </c>
-      <c r="F52" t="str" cm="1">
+      <c r="F52" t="str">
         <f t="array" ref="F52">[1]!encode_PVT(gamma_gas,gamma_oil,gamma_wat,C51,C52,t_res_C,bob_m3m3,muob_cP,pvt_corr_set)</f>
         <v>{"gamma_gas":0.7,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":240,"pb_atma":341.201,"t_res_C":80,"PVT_corr_set":1}</v>
       </c>
@@ -16542,7 +16547,7 @@
         <f t="array" ref="C59:C84">[1]!decode_json($C$57)</f>
         <v>1</v>
       </c>
-      <c r="D59" cm="1">
+      <c r="D59">
         <f t="array" ref="D59">[1]!PVT_rs_m3m3(C59,t_res_C,$F$52)</f>
         <v>8.2271659062697899E-2</v>
       </c>
@@ -16551,7 +16556,7 @@
       <c r="C60">
         <v>14.608000000000001</v>
       </c>
-      <c r="D60" cm="1">
+      <c r="D60">
         <f t="array" ref="D60">[1]!PVT_rs_m3m3(C60,t_res_C,$F$52)</f>
         <v>18.022014659826571</v>
       </c>
@@ -16560,7 +16565,7 @@
       <c r="C61">
         <v>28.216000000000001</v>
       </c>
-      <c r="D61" cm="1">
+      <c r="D61">
         <f t="array" ref="D61">[1]!PVT_rs_m3m3(C61,t_res_C,$F$52)</f>
         <v>28.259056830115654</v>
       </c>
@@ -16569,7 +16574,7 @@
       <c r="C62">
         <v>41.823999999999998</v>
       </c>
-      <c r="D62" cm="1">
+      <c r="D62">
         <f t="array" ref="D62">[1]!PVT_rs_m3m3(C62,t_res_C,$F$52)</f>
         <v>36.880577262600646</v>
       </c>
@@ -16578,7 +16583,7 @@
       <c r="C63">
         <v>55.432000000000002</v>
       </c>
-      <c r="D63" cm="1">
+      <c r="D63">
         <f t="array" ref="D63">[1]!PVT_rs_m3m3(C63,t_res_C,$F$52)</f>
         <v>44.700919980779858</v>
       </c>
@@ -16587,7 +16592,7 @@
       <c r="C64">
         <v>69.040000000000006</v>
       </c>
-      <c r="D64" cm="1">
+      <c r="D64">
         <f t="array" ref="D64">[1]!PVT_rs_m3m3(C64,t_res_C,$F$52)</f>
         <v>52.074681365632486</v>
       </c>
@@ -16596,7 +16601,7 @@
       <c r="C65">
         <v>82.647999999999996</v>
       </c>
-      <c r="D65" cm="1">
+      <c r="D65">
         <f t="array" ref="D65">[1]!PVT_rs_m3m3(C65,t_res_C,$F$52)</f>
         <v>59.2054516936917</v>
       </c>
@@ -16605,7 +16610,7 @@
       <c r="C66">
         <v>96.256</v>
       </c>
-      <c r="D66" cm="1">
+      <c r="D66">
         <f t="array" ref="D66">[1]!PVT_rs_m3m3(C66,t_res_C,$F$52)</f>
         <v>66.229037764954583</v>
       </c>
@@ -16614,7 +16619,7 @@
       <c r="C67">
         <v>109.864</v>
       </c>
-      <c r="D67" cm="1">
+      <c r="D67">
         <f t="array" ref="D67">[1]!PVT_rs_m3m3(C67,t_res_C,$F$52)</f>
         <v>73.245164700554881</v>
       </c>
@@ -16623,7 +16628,7 @@
       <c r="C68">
         <v>123.47199999999999</v>
       </c>
-      <c r="D68" cm="1">
+      <c r="D68">
         <f t="array" ref="D68">[1]!PVT_rs_m3m3(C68,t_res_C,$F$52)</f>
         <v>80.332105990458729</v>
       </c>
@@ -16632,7 +16637,7 @@
       <c r="C69">
         <v>137.08000000000001</v>
       </c>
-      <c r="D69" cm="1">
+      <c r="D69">
         <f t="array" ref="D69">[1]!PVT_rs_m3m3(C69,t_res_C,$F$52)</f>
         <v>87.554340117432034</v>
       </c>
@@ -16641,7 +16646,7 @@
       <c r="C70">
         <v>150.68799999999999</v>
       </c>
-      <c r="D70" cm="1">
+      <c r="D70">
         <f t="array" ref="D70">[1]!PVT_rs_m3m3(C70,t_res_C,$F$52)</f>
         <v>94.96693491792567</v>
       </c>
@@ -16650,7 +16655,7 @@
       <c r="C71">
         <v>164.29599999999999</v>
       </c>
-      <c r="D71" cm="1">
+      <c r="D71">
         <f t="array" ref="D71">[1]!PVT_rs_m3m3(C71,t_res_C,$F$52)</f>
         <v>102.61823487507657</v>
       </c>
@@ -16659,7 +16664,7 @@
       <c r="C72">
         <v>177.904</v>
       </c>
-      <c r="D72" cm="1">
+      <c r="D72">
         <f t="array" ref="D72">[1]!PVT_rs_m3m3(C72,t_res_C,$F$52)</f>
         <v>110.55159866234952</v>
       </c>
@@ -16668,7 +16673,7 @@
       <c r="C73">
         <v>191.51300000000001</v>
       </c>
-      <c r="D73" cm="1">
+      <c r="D73">
         <f t="array" ref="D73">[1]!PVT_rs_m3m3(C73,t_res_C,$F$52)</f>
         <v>118.80719158854971</v>
       </c>
@@ -16677,7 +16682,7 @@
       <c r="C74">
         <v>205.12100000000001</v>
       </c>
-      <c r="D74" cm="1">
+      <c r="D74">
         <f t="array" ref="D74">[1]!PVT_rs_m3m3(C74,t_res_C,$F$52)</f>
         <v>127.42035661422511</v>
       </c>
@@ -16686,7 +16691,7 @@
       <c r="C75">
         <v>218.72900000000001</v>
       </c>
-      <c r="D75" cm="1">
+      <c r="D75">
         <f t="array" ref="D75">[1]!PVT_rs_m3m3(C75,t_res_C,$F$52)</f>
         <v>136.42584203788834</v>
       </c>
@@ -16695,7 +16700,7 @@
       <c r="C76">
         <v>232.33699999999999</v>
       </c>
-      <c r="D76" cm="1">
+      <c r="D76">
         <f t="array" ref="D76">[1]!PVT_rs_m3m3(C76,t_res_C,$F$52)</f>
         <v>145.85583986198873</v>
       </c>
@@ -16704,7 +16709,7 @@
       <c r="C77">
         <v>245.94499999999999</v>
       </c>
-      <c r="D77" cm="1">
+      <c r="D77">
         <f t="array" ref="D77">[1]!PVT_rs_m3m3(C77,t_res_C,$F$52)</f>
         <v>155.74091151119103</v>
       </c>
@@ -16713,7 +16718,7 @@
       <c r="C78">
         <v>259.553</v>
       </c>
-      <c r="D78" cm="1">
+      <c r="D78">
         <f t="array" ref="D78">[1]!PVT_rs_m3m3(C78,t_res_C,$F$52)</f>
         <v>166.11024348451087</v>
       </c>
@@ -16722,7 +16727,7 @@
       <c r="C79">
         <v>273.161</v>
       </c>
-      <c r="D79" cm="1">
+      <c r="D79">
         <f t="array" ref="D79">[1]!PVT_rs_m3m3(C79,t_res_C,$F$52)</f>
         <v>176.99184801102425</v>
       </c>
@@ -16731,7 +16736,7 @@
       <c r="C80">
         <v>286.76900000000001</v>
       </c>
-      <c r="D80" cm="1">
+      <c r="D80">
         <f t="array" ref="D80">[1]!PVT_rs_m3m3(C80,t_res_C,$F$52)</f>
         <v>188.41272296709593</v>
       </c>
@@ -16740,7 +16745,7 @@
       <c r="C81">
         <v>300.37700000000001</v>
       </c>
-      <c r="D81" cm="1">
+      <c r="D81">
         <f t="array" ref="D81">[1]!PVT_rs_m3m3(C81,t_res_C,$F$52)</f>
         <v>200.39898108307841</v>
       </c>
@@ -16749,7 +16754,7 @@
       <c r="C82">
         <v>313.98500000000001</v>
       </c>
-      <c r="D82" cm="1">
+      <c r="D82">
         <f t="array" ref="D82">[1]!PVT_rs_m3m3(C82,t_res_C,$F$52)</f>
         <v>212.97595563227983</v>
       </c>
@@ -16758,7 +16763,7 @@
       <c r="C83">
         <v>327.59300000000002</v>
       </c>
-      <c r="D83" cm="1">
+      <c r="D83">
         <f t="array" ref="D83">[1]!PVT_rs_m3m3(C83,t_res_C,$F$52)</f>
         <v>226.16828785320072</v>
       </c>
@@ -16767,7 +16772,7 @@
       <c r="C84">
         <v>341.20100000000002</v>
       </c>
-      <c r="D84" cm="1">
+      <c r="D84">
         <f t="array" ref="D84">[1]!PVT_rs_m3m3(C84,t_res_C,$F$52)</f>
         <v>240</v>
       </c>
